--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE687178-5045-41BA-8CB2-5C2C272DFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8B0240-041A-4ACE-9D1F-A276796BB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BEAB19DA-255C-4DF6-A3C4-9D7867AFBD2A}"/>
   </bookViews>
@@ -2191,9 +2191,6 @@
     <t>Marine</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -2219,6 +2216,9 @@
   </si>
   <si>
     <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Nuclear power</t>
   </si>
 </sst>
 </file>
@@ -2592,9 +2592,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EE2CA1-9A4E-47A6-BF42-B19D36411AD8}">
   <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -3371,7 +3377,7 @@
         <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="M21" t="s">
         <v>227</v>
@@ -3412,7 +3418,7 @@
         <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M22" t="s">
         <v>227</v>
@@ -3453,7 +3459,7 @@
         <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -3494,7 +3500,7 @@
         <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M24" t="s">
         <v>227</v>
@@ -3535,7 +3541,7 @@
         <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M25" t="s">
         <v>227</v>
@@ -3576,7 +3582,7 @@
         <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M26" t="s">
         <v>227</v>
@@ -3617,7 +3623,7 @@
         <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M27" t="s">
         <v>227</v>
@@ -3658,7 +3664,7 @@
         <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M28" t="s">
         <v>227</v>
@@ -3699,7 +3705,7 @@
         <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M29" t="s">
         <v>227</v>
@@ -4705,10 +4711,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>726</v>
+      </c>
+      <c r="B73" t="s">
         <v>717</v>
-      </c>
-      <c r="B73" t="s">
-        <v>718</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -4728,10 +4734,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
+        <v>726</v>
+      </c>
+      <c r="B74" t="s">
         <v>717</v>
-      </c>
-      <c r="B74" t="s">
-        <v>718</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -4751,10 +4757,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>726</v>
+      </c>
+      <c r="B75" t="s">
         <v>717</v>
-      </c>
-      <c r="B75" t="s">
-        <v>718</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4774,7 +4780,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -4797,7 +4803,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4820,7 +4826,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -4843,7 +4849,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B79" t="s">
         <v>208</v>
@@ -4866,7 +4872,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B80" t="s">
         <v>208</v>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B81" t="s">
         <v>208</v>
@@ -4912,7 +4918,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B82" t="s">
         <v>208</v>
@@ -4935,7 +4941,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -4958,7 +4964,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -4981,7 +4987,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B85" t="s">
         <v>208</v>
@@ -5004,7 +5010,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B86" t="s">
         <v>208</v>
@@ -5027,7 +5033,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B88" t="s">
         <v>208</v>
@@ -5073,7 +5079,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -5119,7 +5125,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -5165,7 +5171,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -5188,7 +5194,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -5211,7 +5217,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
@@ -5303,7 +5309,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B99" t="s">
         <v>214</v>
@@ -5326,7 +5332,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B100" t="s">
         <v>214</v>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B101" t="s">
         <v>214</v>
@@ -5372,7 +5378,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B102" t="s">
         <v>214</v>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B103" t="s">
         <v>214</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B104" t="s">
         <v>214</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B105" t="s">
         <v>214</v>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
@@ -5487,7 +5493,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B107" t="s">
         <v>214</v>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8B0240-041A-4ACE-9D1F-A276796BB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C205D4-24B3-4513-B7D3-C97A0BBA421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BEAB19DA-255C-4DF6-A3C4-9D7867AFBD2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FD41D76A-AF1E-4EFE-882A-E8ECBDF1B1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2191,6 +2191,9 @@
     <t>Marine</t>
   </si>
   <si>
+    <t>Nuclear large</t>
+  </si>
+  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -2216,9 +2219,6 @@
   </si>
   <si>
     <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>Nuclear power</t>
   </si>
 </sst>
 </file>
@@ -2589,18 +2589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EE2CA1-9A4E-47A6-BF42-B19D36411AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D87CF-7303-4BBE-A64E-43F8B15526FD}">
   <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -3377,7 +3371,7 @@
         <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="M21" t="s">
         <v>227</v>
@@ -3418,7 +3412,7 @@
         <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M22" t="s">
         <v>227</v>
@@ -3459,7 +3453,7 @@
         <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -3500,7 +3494,7 @@
         <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M24" t="s">
         <v>227</v>
@@ -3541,7 +3535,7 @@
         <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M25" t="s">
         <v>227</v>
@@ -3582,7 +3576,7 @@
         <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M26" t="s">
         <v>227</v>
@@ -3623,7 +3617,7 @@
         <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M27" t="s">
         <v>227</v>
@@ -3664,7 +3658,7 @@
         <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M28" t="s">
         <v>227</v>
@@ -3705,7 +3699,7 @@
         <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M29" t="s">
         <v>227</v>
@@ -4711,10 +4705,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B73" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -4734,10 +4728,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B74" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -4757,10 +4751,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B75" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4780,7 +4774,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -4803,7 +4797,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4826,7 +4820,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -4849,7 +4843,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B79" t="s">
         <v>208</v>
@@ -4872,7 +4866,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B80" t="s">
         <v>208</v>
@@ -4895,7 +4889,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B81" t="s">
         <v>208</v>
@@ -4918,7 +4912,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B82" t="s">
         <v>208</v>
@@ -4941,7 +4935,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -4964,7 +4958,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B85" t="s">
         <v>208</v>
@@ -5010,7 +5004,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B86" t="s">
         <v>208</v>
@@ -5033,7 +5027,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
@@ -5056,7 +5050,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B88" t="s">
         <v>208</v>
@@ -5079,7 +5073,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -5102,7 +5096,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -5125,7 +5119,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5148,7 +5142,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -5171,7 +5165,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -5194,7 +5188,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -5217,7 +5211,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
@@ -5240,7 +5234,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -5263,7 +5257,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -5286,7 +5280,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
@@ -5309,7 +5303,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B99" t="s">
         <v>214</v>
@@ -5332,7 +5326,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B100" t="s">
         <v>214</v>
@@ -5355,7 +5349,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B101" t="s">
         <v>214</v>
@@ -5378,7 +5372,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B102" t="s">
         <v>214</v>
@@ -5401,7 +5395,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B103" t="s">
         <v>214</v>
@@ -5424,7 +5418,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B104" t="s">
         <v>214</v>
@@ -5447,7 +5441,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B105" t="s">
         <v>214</v>
@@ -5470,7 +5464,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
@@ -5493,7 +5487,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B107" t="s">
         <v>214</v>
@@ -5520,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB77036-6B26-4539-8F65-9A5E446699A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E1F602-A415-40C1-B944-73129E8B4385}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13605,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30956CAA-CBF5-4C88-A816-32CA507109D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2E9741-C688-45BC-9AD5-40D73EDAC6BD}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C205D4-24B3-4513-B7D3-C97A0BBA421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30DD724-4841-4F14-A3D5-908C14924532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FD41D76A-AF1E-4EFE-882A-E8ECBDF1B1B8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCB8D650-6B96-4681-85DE-6B2C8FDF66FD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D87CF-7303-4BBE-A64E-43F8B15526FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6698C505-67FF-48D7-80D4-E01D020C49C4}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E1F602-A415-40C1-B944-73129E8B4385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E363E62-B800-44D6-83F2-6EE1D3140004}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2E9741-C688-45BC-9AD5-40D73EDAC6BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967DB75-1E54-4D60-BED0-06987F7945FB}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30DD724-4841-4F14-A3D5-908C14924532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A123BE-2760-4B8A-BD8D-11E6FBA2DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCB8D650-6B96-4681-85DE-6B2C8FDF66FD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C78F9F1E-70F5-44C6-A788-D729155EC13D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6698C505-67FF-48D7-80D4-E01D020C49C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F9B86-B924-4FCD-964A-9E678717AFAA}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E363E62-B800-44D6-83F2-6EE1D3140004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03123E5A-33CB-40B9-AA49-1B21AEA24459}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967DB75-1E54-4D60-BED0-06987F7945FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C69487-86B3-4DF2-8BCA-81E8D5368964}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A123BE-2760-4B8A-BD8D-11E6FBA2DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0179A8D3-3FB1-42C1-AE62-B54880DCEB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C78F9F1E-70F5-44C6-A788-D729155EC13D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB40A9AE-F48D-4A09-974B-DE5A0A09EDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F9B86-B924-4FCD-964A-9E678717AFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541E6F3D-3FE1-4102-B831-418C5A70748C}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03123E5A-33CB-40B9-AA49-1B21AEA24459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BADD04-773F-41B9-AEC5-5FA669B46E75}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C69487-86B3-4DF2-8BCA-81E8D5368964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AECBD12-4598-4CFD-A9F2-D0CA7B5BB4A5}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0179A8D3-3FB1-42C1-AE62-B54880DCEB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2AB552-B6AA-4F55-A623-45F1C8CF74A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB40A9AE-F48D-4A09-974B-DE5A0A09EDFD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{382320D9-2528-4CDA-B2FF-D55AFA8189D6}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541E6F3D-3FE1-4102-B831-418C5A70748C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5F549-FC1D-49C0-9DA4-C25C752079A2}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BADD04-773F-41B9-AEC5-5FA669B46E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806861A-E09F-48D3-9AF2-40C39C27A9BB}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AECBD12-4598-4CFD-A9F2-D0CA7B5BB4A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEE1D36-CEC7-40E0-9A20-FEA250882020}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2AB552-B6AA-4F55-A623-45F1C8CF74A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{537BCE17-3BFF-4461-B742-EC16C55EA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{382320D9-2528-4CDA-B2FF-D55AFA8189D6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6772C4F-6FE2-45E8-82E7-412DA7E6B9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5F549-FC1D-49C0-9DA4-C25C752079A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AE0558-3331-42BB-B59A-A99801962104}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806861A-E09F-48D3-9AF2-40C39C27A9BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA2FCD-25CB-4AD0-AE10-6758D52551C4}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEE1D36-CEC7-40E0-9A20-FEA250882020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE23CA-A344-41B8-9A35-4375263A34EA}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537BCE17-3BFF-4461-B742-EC16C55EA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6A2629-EE03-4222-8B9E-AACD411704C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6772C4F-6FE2-45E8-82E7-412DA7E6B9AD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0751BE8-3C0D-47D6-9516-CE491B0E5E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AE0558-3331-42BB-B59A-A99801962104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BBBE48-49B4-4659-AE9A-4AFFCD67F2E0}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA2FCD-25CB-4AD0-AE10-6758D52551C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6B5DF-A153-4132-A40C-B80803599987}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE23CA-A344-41B8-9A35-4375263A34EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D21010-F7CE-4832-88C8-C79D30E39FB1}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6A2629-EE03-4222-8B9E-AACD411704C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0355FDB-33D9-4633-87CD-5FD8324F15D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0751BE8-3C0D-47D6-9516-CE491B0E5E6F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{48720D72-FB40-4221-AB7E-FB28AA1CC96B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BBBE48-49B4-4659-AE9A-4AFFCD67F2E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E526DFD-DFAA-40DD-BC5F-6F596BEE2AAA}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6B5DF-A153-4132-A40C-B80803599987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047B517-A3F3-464D-AD9D-337329697A40}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D21010-F7CE-4832-88C8-C79D30E39FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591968A-4DA7-42B5-87A3-273F3661A34B}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0355FDB-33D9-4633-87CD-5FD8324F15D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43273C37-1BC1-46B3-8457-3CD0ACA2501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{48720D72-FB40-4221-AB7E-FB28AA1CC96B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2EDC5C15-47B1-4E98-B381-985034838B15}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E526DFD-DFAA-40DD-BC5F-6F596BEE2AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1BA1D-C107-48B1-BFF0-B7A797D8021A}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047B517-A3F3-464D-AD9D-337329697A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9B0595-0263-432A-91EE-B3A0599C55F3}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591968A-4DA7-42B5-87A3-273F3661A34B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B224A4B-A21D-4BD0-AE7B-CE6C17F79B99}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43273C37-1BC1-46B3-8457-3CD0ACA2501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE1787D-75C9-4385-8DDE-71907094F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2EDC5C15-47B1-4E98-B381-985034838B15}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6B26415-7FF5-4E40-A58D-E2FEF394CD19}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1BA1D-C107-48B1-BFF0-B7A797D8021A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A0ECC-D06C-46FD-8040-A4915F229B24}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9B0595-0263-432A-91EE-B3A0599C55F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F04818A-FA3B-4408-AA5E-91DF48D55CD7}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B224A4B-A21D-4BD0-AE7B-CE6C17F79B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263B6CD-E938-474B-B06D-402FDBF31F43}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE1787D-75C9-4385-8DDE-71907094F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C591E73C-9010-4B83-B695-792BEDB5336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6B26415-7FF5-4E40-A58D-E2FEF394CD19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3F0EBC1A-52CF-45B7-9389-308CEC5EDDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A0ECC-D06C-46FD-8040-A4915F229B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433530D-9C09-41C4-BF3F-4AC8179A4694}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5514,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F04818A-FA3B-4408-AA5E-91DF48D55CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45858AC8-6399-41F7-9C88-B7C84796364E}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13599,7 +13599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263B6CD-E938-474B-B06D-402FDBF31F43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691E3EA4-419B-471A-8196-C2AFFA7D61A9}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C591E73C-9010-4B83-B695-792BEDB5336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C966D943-F14F-4E4C-A15F-57C2678D6D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3F0EBC1A-52CF-45B7-9389-308CEC5EDDC4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C455E47F-385F-48EA-8BE7-3D1E4C5F9544}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="728">
   <si>
     <t>process</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>San Filippo del Mela power station_1</t>
+  </si>
+  <si>
+    <t>annual</t>
   </si>
   <si>
     <t>Tuscania solar farm_--</t>
@@ -2589,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433530D-9C09-41C4-BF3F-4AC8179A4694}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA64188F-F0FF-46D1-A961-92F0C0DF0A4E}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2598,10 +2601,10 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -2624,7 +2627,7 @@
         <v>2050</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2674,7 +2677,7 @@
         <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M4" t="s">
         <v>227</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2709,13 +2712,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J5" t="s">
         <v>225</v>
       </c>
       <c r="K5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M5" t="s">
         <v>227</v>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2756,7 +2759,7 @@
         <v>225</v>
       </c>
       <c r="K6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M6" t="s">
         <v>227</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2797,7 +2800,7 @@
         <v>225</v>
       </c>
       <c r="K7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M7" t="s">
         <v>227</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2832,13 +2835,13 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J8" t="s">
         <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M8" t="s">
         <v>227</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2879,7 +2882,7 @@
         <v>225</v>
       </c>
       <c r="K9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M9" t="s">
         <v>227</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2914,13 +2917,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J10" t="s">
         <v>225</v>
       </c>
       <c r="K10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M10" t="s">
         <v>227</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2961,7 +2964,7 @@
         <v>225</v>
       </c>
       <c r="K11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M11" t="s">
         <v>227</v>
@@ -2978,7 +2981,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3002,7 +3005,7 @@
         <v>225</v>
       </c>
       <c r="K12" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M12" t="s">
         <v>227</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3037,13 +3040,13 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J13" t="s">
         <v>225</v>
       </c>
       <c r="K13" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M13" t="s">
         <v>227</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3084,7 +3087,7 @@
         <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M14" t="s">
         <v>227</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -3119,13 +3122,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="G15" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J15" t="s">
         <v>225</v>
       </c>
       <c r="K15" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M15" t="s">
         <v>227</v>
@@ -3142,7 +3145,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3166,7 +3169,7 @@
         <v>225</v>
       </c>
       <c r="K16" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M16" t="s">
         <v>227</v>
@@ -3183,7 +3186,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -3207,7 +3210,7 @@
         <v>225</v>
       </c>
       <c r="K17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M17" t="s">
         <v>227</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -3242,13 +3245,13 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J18" t="s">
         <v>225</v>
       </c>
       <c r="K18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M18" t="s">
         <v>227</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -3289,7 +3292,7 @@
         <v>225</v>
       </c>
       <c r="K19" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M19" t="s">
         <v>227</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3324,13 +3327,13 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G20" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J20" t="s">
         <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M20" t="s">
         <v>227</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3371,7 +3374,7 @@
         <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M21" t="s">
         <v>227</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3412,7 +3415,7 @@
         <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M22" t="s">
         <v>227</v>
@@ -3429,7 +3432,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3447,13 +3450,13 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J23" t="s">
         <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -3494,7 +3497,7 @@
         <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M24" t="s">
         <v>227</v>
@@ -3511,7 +3514,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -3535,7 +3538,7 @@
         <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M25" t="s">
         <v>227</v>
@@ -3552,7 +3555,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -3576,7 +3579,7 @@
         <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M26" t="s">
         <v>227</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3617,7 +3620,7 @@
         <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M27" t="s">
         <v>227</v>
@@ -3634,7 +3637,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -3658,7 +3661,7 @@
         <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M28" t="s">
         <v>227</v>
@@ -3675,7 +3678,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -3699,7 +3702,7 @@
         <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M29" t="s">
         <v>227</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -3739,7 +3742,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -3762,7 +3765,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -3808,7 +3811,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -3831,7 +3834,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B36" t="s">
         <v>208</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B37" t="s">
         <v>208</v>
@@ -3895,12 +3898,12 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B38" t="s">
         <v>208</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B39" t="s">
         <v>208</v>
@@ -3946,7 +3949,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B40" t="s">
         <v>208</v>
@@ -3964,15 +3967,15 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B41" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -3992,10 +3995,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B43" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B48" t="s">
         <v>148</v>
@@ -4148,12 +4151,12 @@
         <v>0.85000000000000009</v>
       </c>
       <c r="G48" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B50" t="s">
         <v>148</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B51" t="s">
         <v>148</v>
@@ -4217,12 +4220,12 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B52" t="s">
         <v>150</v>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B53" t="s">
         <v>150</v>
@@ -4263,12 +4266,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B54" t="s">
         <v>150</v>
@@ -4291,7 +4294,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B55" t="s">
         <v>150</v>
@@ -4314,7 +4317,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B56" t="s">
         <v>150</v>
@@ -4332,12 +4335,12 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B57" t="s">
         <v>150</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B58" t="s">
         <v>150</v>
@@ -4378,12 +4381,12 @@
         <v>0.25</v>
       </c>
       <c r="G58" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B59" t="s">
         <v>150</v>
@@ -4406,7 +4409,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B60" t="s">
         <v>150</v>
@@ -4429,7 +4432,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B61" t="s">
         <v>150</v>
@@ -4447,12 +4450,12 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -4475,7 +4478,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -4567,7 +4570,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -4590,7 +4593,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B68" t="s">
         <v>150</v>
@@ -4613,7 +4616,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B69" t="s">
         <v>150</v>
@@ -4631,12 +4634,12 @@
         <v>0.25</v>
       </c>
       <c r="G69" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B70" t="s">
         <v>150</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B71" t="s">
         <v>150</v>
@@ -4682,7 +4685,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B72" t="s">
         <v>150</v>
@@ -4700,15 +4703,15 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B73" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -4728,10 +4731,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B74" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -4751,10 +4754,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B75" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4774,7 +4777,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4820,7 +4823,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -4843,7 +4846,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B79" t="s">
         <v>208</v>
@@ -4866,7 +4869,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B80" t="s">
         <v>208</v>
@@ -4884,12 +4887,12 @@
         <v>0.13</v>
       </c>
       <c r="G80" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B81" t="s">
         <v>208</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B82" t="s">
         <v>208</v>
@@ -4935,7 +4938,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -4953,12 +4956,12 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B85" t="s">
         <v>208</v>
@@ -4999,12 +5002,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B86" t="s">
         <v>208</v>
@@ -5027,7 +5030,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
@@ -5050,7 +5053,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B88" t="s">
         <v>208</v>
@@ -5068,12 +5071,12 @@
         <v>1.5</v>
       </c>
       <c r="G88" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -5119,7 +5122,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5142,7 +5145,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -5165,7 +5168,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -5211,7 +5214,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -5257,7 +5260,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -5280,7 +5283,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B99" t="s">
         <v>214</v>
@@ -5321,12 +5324,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G99" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B100" t="s">
         <v>214</v>
@@ -5349,7 +5352,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B101" t="s">
         <v>214</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B102" t="s">
         <v>214</v>
@@ -5390,12 +5393,12 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B103" t="s">
         <v>214</v>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B104" t="s">
         <v>214</v>
@@ -5436,12 +5439,12 @@
         <v>0.3</v>
       </c>
       <c r="G104" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B105" t="s">
         <v>214</v>
@@ -5464,7 +5467,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B107" t="s">
         <v>214</v>
@@ -5505,7 +5508,7 @@
         <v>1.5</v>
       </c>
       <c r="G107" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45858AC8-6399-41F7-9C88-B7C84796364E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAA46A-1384-4ED4-911C-79D635B559CF}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5523,10 +5526,10 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -5552,13 +5555,13 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -5587,7 +5590,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -5623,10 +5626,10 @@
         <v>225</v>
       </c>
       <c r="O4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q4" t="s">
         <v>227</v>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -5679,10 +5682,10 @@
         <v>225</v>
       </c>
       <c r="O5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Q5" t="s">
         <v>227</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -5735,10 +5738,10 @@
         <v>225</v>
       </c>
       <c r="O6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q6" t="s">
         <v>227</v>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -5791,10 +5794,10 @@
         <v>225</v>
       </c>
       <c r="O7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q7" t="s">
         <v>227</v>
@@ -5811,7 +5814,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -5847,10 +5850,10 @@
         <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q8" t="s">
         <v>227</v>
@@ -5867,7 +5870,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -5903,10 +5906,10 @@
         <v>225</v>
       </c>
       <c r="O9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q9" t="s">
         <v>227</v>
@@ -5923,7 +5926,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -5959,10 +5962,10 @@
         <v>225</v>
       </c>
       <c r="O10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q10" t="s">
         <v>227</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -6015,10 +6018,10 @@
         <v>225</v>
       </c>
       <c r="O11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q11" t="s">
         <v>227</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -6071,10 +6074,10 @@
         <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q12" t="s">
         <v>227</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -6127,10 +6130,10 @@
         <v>225</v>
       </c>
       <c r="O13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q13" t="s">
         <v>227</v>
@@ -6147,7 +6150,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -6183,10 +6186,10 @@
         <v>225</v>
       </c>
       <c r="O14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q14" t="s">
         <v>227</v>
@@ -6203,7 +6206,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -6239,10 +6242,10 @@
         <v>225</v>
       </c>
       <c r="O15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q15" t="s">
         <v>227</v>
@@ -6259,7 +6262,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -6295,10 +6298,10 @@
         <v>225</v>
       </c>
       <c r="O16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q16" t="s">
         <v>227</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6351,10 +6354,10 @@
         <v>225</v>
       </c>
       <c r="O17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q17" t="s">
         <v>227</v>
@@ -6371,7 +6374,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -6407,10 +6410,10 @@
         <v>225</v>
       </c>
       <c r="O18" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q18" t="s">
         <v>227</v>
@@ -6427,7 +6430,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -6463,10 +6466,10 @@
         <v>225</v>
       </c>
       <c r="O19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q19" t="s">
         <v>227</v>
@@ -6483,7 +6486,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -6519,10 +6522,10 @@
         <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q20" t="s">
         <v>227</v>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -6575,10 +6578,10 @@
         <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q21" t="s">
         <v>227</v>
@@ -6595,7 +6598,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -6631,10 +6634,10 @@
         <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="s">
         <v>227</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -6687,10 +6690,10 @@
         <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P23" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q23" t="s">
         <v>227</v>
@@ -6707,7 +6710,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -6743,10 +6746,10 @@
         <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q24" t="s">
         <v>227</v>
@@ -6763,7 +6766,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -6799,10 +6802,10 @@
         <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q25" t="s">
         <v>227</v>
@@ -6819,7 +6822,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -6855,10 +6858,10 @@
         <v>225</v>
       </c>
       <c r="O26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q26" t="s">
         <v>227</v>
@@ -6875,7 +6878,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -6911,10 +6914,10 @@
         <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q27" t="s">
         <v>227</v>
@@ -6931,7 +6934,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -6967,10 +6970,10 @@
         <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P28" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q28" t="s">
         <v>227</v>
@@ -6987,7 +6990,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -7023,10 +7026,10 @@
         <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P29" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q29" t="s">
         <v>227</v>
@@ -7043,7 +7046,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -7079,10 +7082,10 @@
         <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q30" t="s">
         <v>227</v>
@@ -7099,7 +7102,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -7135,10 +7138,10 @@
         <v>225</v>
       </c>
       <c r="O31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q31" t="s">
         <v>227</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -7191,10 +7194,10 @@
         <v>225</v>
       </c>
       <c r="O32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P32" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q32" t="s">
         <v>227</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -7247,10 +7250,10 @@
         <v>225</v>
       </c>
       <c r="O33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q33" t="s">
         <v>227</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -7303,10 +7306,10 @@
         <v>225</v>
       </c>
       <c r="O34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Q34" t="s">
         <v>227</v>
@@ -7323,7 +7326,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -7359,10 +7362,10 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q35" t="s">
         <v>227</v>
@@ -7379,7 +7382,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -7415,10 +7418,10 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q36" t="s">
         <v>227</v>
@@ -7435,7 +7438,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -7471,10 +7474,10 @@
         <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q37" t="s">
         <v>227</v>
@@ -7491,7 +7494,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -7527,10 +7530,10 @@
         <v>225</v>
       </c>
       <c r="O38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P38" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q38" t="s">
         <v>227</v>
@@ -7547,7 +7550,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -7583,10 +7586,10 @@
         <v>225</v>
       </c>
       <c r="O39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P39" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q39" t="s">
         <v>227</v>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -7639,10 +7642,10 @@
         <v>225</v>
       </c>
       <c r="O40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P40" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q40" t="s">
         <v>227</v>
@@ -7659,7 +7662,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -7695,10 +7698,10 @@
         <v>225</v>
       </c>
       <c r="O41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q41" t="s">
         <v>227</v>
@@ -7715,7 +7718,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -7751,10 +7754,10 @@
         <v>225</v>
       </c>
       <c r="O42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P42" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q42" t="s">
         <v>227</v>
@@ -7771,7 +7774,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -7807,10 +7810,10 @@
         <v>225</v>
       </c>
       <c r="O43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P43" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q43" t="s">
         <v>227</v>
@@ -7827,7 +7830,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -7863,10 +7866,10 @@
         <v>225</v>
       </c>
       <c r="O44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P44" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q44" t="s">
         <v>227</v>
@@ -7883,7 +7886,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -7919,10 +7922,10 @@
         <v>225</v>
       </c>
       <c r="O45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P45" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q45" t="s">
         <v>227</v>
@@ -7939,7 +7942,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -7975,10 +7978,10 @@
         <v>225</v>
       </c>
       <c r="O46" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q46" t="s">
         <v>227</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -8031,10 +8034,10 @@
         <v>225</v>
       </c>
       <c r="O47" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P47" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q47" t="s">
         <v>227</v>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -8087,10 +8090,10 @@
         <v>225</v>
       </c>
       <c r="O48" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q48" t="s">
         <v>227</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -8143,10 +8146,10 @@
         <v>225</v>
       </c>
       <c r="O49" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P49" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q49" t="s">
         <v>227</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -8199,10 +8202,10 @@
         <v>225</v>
       </c>
       <c r="O50" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P50" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q50" t="s">
         <v>227</v>
@@ -8219,7 +8222,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -8255,10 +8258,10 @@
         <v>225</v>
       </c>
       <c r="O51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P51" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q51" t="s">
         <v>227</v>
@@ -8275,7 +8278,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -8311,10 +8314,10 @@
         <v>225</v>
       </c>
       <c r="O52" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P52" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q52" t="s">
         <v>227</v>
@@ -8331,7 +8334,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -8367,10 +8370,10 @@
         <v>225</v>
       </c>
       <c r="O53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Q53" t="s">
         <v>227</v>
@@ -8387,7 +8390,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -8423,10 +8426,10 @@
         <v>225</v>
       </c>
       <c r="O54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P54" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q54" t="s">
         <v>227</v>
@@ -8443,7 +8446,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -8479,10 +8482,10 @@
         <v>225</v>
       </c>
       <c r="O55" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P55" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q55" t="s">
         <v>227</v>
@@ -8499,7 +8502,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -8535,10 +8538,10 @@
         <v>225</v>
       </c>
       <c r="O56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P56" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Q56" t="s">
         <v>227</v>
@@ -8555,7 +8558,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -8591,10 +8594,10 @@
         <v>225</v>
       </c>
       <c r="O57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P57" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q57" t="s">
         <v>227</v>
@@ -8611,7 +8614,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -8647,10 +8650,10 @@
         <v>225</v>
       </c>
       <c r="O58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P58" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q58" t="s">
         <v>227</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -8703,10 +8706,10 @@
         <v>225</v>
       </c>
       <c r="O59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P59" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q59" t="s">
         <v>227</v>
@@ -8723,7 +8726,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -8759,10 +8762,10 @@
         <v>225</v>
       </c>
       <c r="O60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P60" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q60" t="s">
         <v>227</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -8815,10 +8818,10 @@
         <v>225</v>
       </c>
       <c r="O61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P61" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q61" t="s">
         <v>227</v>
@@ -8835,7 +8838,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -8871,10 +8874,10 @@
         <v>225</v>
       </c>
       <c r="O62" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P62" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q62" t="s">
         <v>227</v>
@@ -8891,7 +8894,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -8927,10 +8930,10 @@
         <v>225</v>
       </c>
       <c r="O63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P63" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q63" t="s">
         <v>227</v>
@@ -8947,7 +8950,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -8983,10 +8986,10 @@
         <v>225</v>
       </c>
       <c r="O64" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P64" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q64" t="s">
         <v>227</v>
@@ -9003,7 +9006,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -9039,10 +9042,10 @@
         <v>225</v>
       </c>
       <c r="O65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P65" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q65" t="s">
         <v>227</v>
@@ -9059,7 +9062,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -9095,10 +9098,10 @@
         <v>225</v>
       </c>
       <c r="O66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P66" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q66" t="s">
         <v>227</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -9151,10 +9154,10 @@
         <v>225</v>
       </c>
       <c r="O67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P67" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q67" t="s">
         <v>227</v>
@@ -9171,7 +9174,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s">
         <v>25</v>
@@ -9207,10 +9210,10 @@
         <v>225</v>
       </c>
       <c r="O68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P68" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q68" t="s">
         <v>227</v>
@@ -9227,7 +9230,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -9263,10 +9266,10 @@
         <v>225</v>
       </c>
       <c r="O69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P69" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q69" t="s">
         <v>227</v>
@@ -9283,7 +9286,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -9319,10 +9322,10 @@
         <v>225</v>
       </c>
       <c r="O70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P70" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q70" t="s">
         <v>227</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
         <v>25</v>
@@ -9375,10 +9378,10 @@
         <v>225</v>
       </c>
       <c r="O71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P71" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Q71" t="s">
         <v>227</v>
@@ -9395,7 +9398,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -9431,10 +9434,10 @@
         <v>225</v>
       </c>
       <c r="O72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P72" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q72" t="s">
         <v>227</v>
@@ -9451,7 +9454,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -9487,10 +9490,10 @@
         <v>225</v>
       </c>
       <c r="O73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P73" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q73" t="s">
         <v>227</v>
@@ -9507,7 +9510,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -9543,10 +9546,10 @@
         <v>225</v>
       </c>
       <c r="O74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P74" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q74" t="s">
         <v>227</v>
@@ -9563,7 +9566,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
@@ -9599,10 +9602,10 @@
         <v>225</v>
       </c>
       <c r="O75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P75" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q75" t="s">
         <v>227</v>
@@ -9619,7 +9622,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
@@ -9655,10 +9658,10 @@
         <v>225</v>
       </c>
       <c r="O76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P76" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q76" t="s">
         <v>227</v>
@@ -9675,7 +9678,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -9711,10 +9714,10 @@
         <v>225</v>
       </c>
       <c r="O77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P77" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q77" t="s">
         <v>227</v>
@@ -9731,7 +9734,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -9767,10 +9770,10 @@
         <v>225</v>
       </c>
       <c r="O78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P78" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q78" t="s">
         <v>227</v>
@@ -9787,7 +9790,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -9823,10 +9826,10 @@
         <v>225</v>
       </c>
       <c r="O79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Q79" t="s">
         <v>227</v>
@@ -9843,7 +9846,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -9879,10 +9882,10 @@
         <v>225</v>
       </c>
       <c r="O80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P80" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q80" t="s">
         <v>227</v>
@@ -9899,7 +9902,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -9935,10 +9938,10 @@
         <v>225</v>
       </c>
       <c r="O81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P81" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Q81" t="s">
         <v>227</v>
@@ -9955,7 +9958,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
@@ -9991,10 +9994,10 @@
         <v>225</v>
       </c>
       <c r="O82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P82" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q82" t="s">
         <v>227</v>
@@ -10011,7 +10014,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -10047,10 +10050,10 @@
         <v>225</v>
       </c>
       <c r="O83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P83" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q83" t="s">
         <v>227</v>
@@ -10067,7 +10070,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
@@ -10103,10 +10106,10 @@
         <v>225</v>
       </c>
       <c r="O84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P84" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q84" t="s">
         <v>227</v>
@@ -10123,7 +10126,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
@@ -10159,10 +10162,10 @@
         <v>225</v>
       </c>
       <c r="O85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P85" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Q85" t="s">
         <v>227</v>
@@ -10179,7 +10182,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
@@ -10215,10 +10218,10 @@
         <v>225</v>
       </c>
       <c r="O86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P86" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q86" t="s">
         <v>227</v>
@@ -10235,7 +10238,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
@@ -10271,10 +10274,10 @@
         <v>225</v>
       </c>
       <c r="O87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P87" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Q87" t="s">
         <v>227</v>
@@ -10291,7 +10294,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
@@ -10327,10 +10330,10 @@
         <v>225</v>
       </c>
       <c r="O88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P88" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q88" t="s">
         <v>227</v>
@@ -10347,7 +10350,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -10383,10 +10386,10 @@
         <v>225</v>
       </c>
       <c r="O89" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P89" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q89" t="s">
         <v>227</v>
@@ -10403,7 +10406,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
@@ -10439,10 +10442,10 @@
         <v>225</v>
       </c>
       <c r="O90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P90" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q90" t="s">
         <v>227</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -10495,10 +10498,10 @@
         <v>225</v>
       </c>
       <c r="O91" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P91" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q91" t="s">
         <v>227</v>
@@ -10515,7 +10518,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -10551,10 +10554,10 @@
         <v>225</v>
       </c>
       <c r="O92" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P92" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q92" t="s">
         <v>227</v>
@@ -10571,7 +10574,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -10607,10 +10610,10 @@
         <v>225</v>
       </c>
       <c r="O93" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P93" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q93" t="s">
         <v>227</v>
@@ -10627,7 +10630,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -10663,10 +10666,10 @@
         <v>225</v>
       </c>
       <c r="O94" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P94" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q94" t="s">
         <v>227</v>
@@ -10683,7 +10686,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -10719,10 +10722,10 @@
         <v>225</v>
       </c>
       <c r="O95" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P95" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q95" t="s">
         <v>227</v>
@@ -10739,7 +10742,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -10775,10 +10778,10 @@
         <v>225</v>
       </c>
       <c r="O96" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P96" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q96" t="s">
         <v>227</v>
@@ -10795,7 +10798,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
@@ -10831,10 +10834,10 @@
         <v>225</v>
       </c>
       <c r="O97" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P97" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q97" t="s">
         <v>227</v>
@@ -10851,7 +10854,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
@@ -10887,10 +10890,10 @@
         <v>225</v>
       </c>
       <c r="O98" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P98" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q98" t="s">
         <v>227</v>
@@ -10907,7 +10910,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B99" t="s">
         <v>25</v>
@@ -10943,10 +10946,10 @@
         <v>225</v>
       </c>
       <c r="O99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P99" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q99" t="s">
         <v>227</v>
@@ -10963,7 +10966,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -10999,10 +11002,10 @@
         <v>225</v>
       </c>
       <c r="O100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P100" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Q100" t="s">
         <v>227</v>
@@ -11019,7 +11022,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
@@ -11055,10 +11058,10 @@
         <v>225</v>
       </c>
       <c r="O101" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P101" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q101" t="s">
         <v>227</v>
@@ -11075,7 +11078,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -11111,10 +11114,10 @@
         <v>225</v>
       </c>
       <c r="O102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P102" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q102" t="s">
         <v>227</v>
@@ -11131,7 +11134,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
@@ -11167,10 +11170,10 @@
         <v>225</v>
       </c>
       <c r="O103" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P103" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q103" t="s">
         <v>227</v>
@@ -11187,7 +11190,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -11223,10 +11226,10 @@
         <v>225</v>
       </c>
       <c r="O104" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P104" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Q104" t="s">
         <v>227</v>
@@ -11243,7 +11246,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B105" t="s">
         <v>25</v>
@@ -11279,10 +11282,10 @@
         <v>225</v>
       </c>
       <c r="O105" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P105" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q105" t="s">
         <v>227</v>
@@ -11299,7 +11302,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s">
         <v>25</v>
@@ -11335,10 +11338,10 @@
         <v>225</v>
       </c>
       <c r="O106" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P106" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q106" t="s">
         <v>227</v>
@@ -11355,7 +11358,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -11391,10 +11394,10 @@
         <v>225</v>
       </c>
       <c r="O107" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P107" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q107" t="s">
         <v>227</v>
@@ -11411,7 +11414,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
@@ -11447,10 +11450,10 @@
         <v>225</v>
       </c>
       <c r="O108" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P108" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Q108" t="s">
         <v>227</v>
@@ -11467,7 +11470,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -11503,10 +11506,10 @@
         <v>225</v>
       </c>
       <c r="O109" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P109" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q109" t="s">
         <v>227</v>
@@ -11523,7 +11526,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -11559,10 +11562,10 @@
         <v>225</v>
       </c>
       <c r="O110" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P110" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="Q110" t="s">
         <v>227</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -11615,10 +11618,10 @@
         <v>225</v>
       </c>
       <c r="O111" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P111" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q111" t="s">
         <v>227</v>
@@ -11635,7 +11638,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s">
         <v>25</v>
@@ -11671,10 +11674,10 @@
         <v>225</v>
       </c>
       <c r="O112" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P112" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Q112" t="s">
         <v>227</v>
@@ -11691,7 +11694,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s">
         <v>25</v>
@@ -11727,10 +11730,10 @@
         <v>225</v>
       </c>
       <c r="O113" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P113" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q113" t="s">
         <v>227</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s">
         <v>25</v>
@@ -11783,10 +11786,10 @@
         <v>225</v>
       </c>
       <c r="O114" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P114" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Q114" t="s">
         <v>227</v>
@@ -11803,7 +11806,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s">
         <v>25</v>
@@ -11839,10 +11842,10 @@
         <v>225</v>
       </c>
       <c r="O115" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P115" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q115" t="s">
         <v>227</v>
@@ -11859,7 +11862,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
@@ -11895,10 +11898,10 @@
         <v>225</v>
       </c>
       <c r="O116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P116" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q116" t="s">
         <v>227</v>
@@ -11915,7 +11918,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
@@ -11951,10 +11954,10 @@
         <v>225</v>
       </c>
       <c r="O117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P117" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Q117" t="s">
         <v>227</v>
@@ -11971,7 +11974,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -12007,10 +12010,10 @@
         <v>225</v>
       </c>
       <c r="O118" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P118" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q118" t="s">
         <v>227</v>
@@ -12027,7 +12030,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B119" t="s">
         <v>25</v>
@@ -12063,10 +12066,10 @@
         <v>225</v>
       </c>
       <c r="O119" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P119" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q119" t="s">
         <v>227</v>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B120" t="s">
         <v>25</v>
@@ -12119,10 +12122,10 @@
         <v>225</v>
       </c>
       <c r="O120" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P120" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q120" t="s">
         <v>227</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B121" t="s">
         <v>25</v>
@@ -12175,10 +12178,10 @@
         <v>225</v>
       </c>
       <c r="O121" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P121" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q121" t="s">
         <v>227</v>
@@ -12195,7 +12198,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -12231,10 +12234,10 @@
         <v>225</v>
       </c>
       <c r="O122" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P122" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q122" t="s">
         <v>227</v>
@@ -12251,7 +12254,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -12287,10 +12290,10 @@
         <v>225</v>
       </c>
       <c r="O123" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P123" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Q123" t="s">
         <v>227</v>
@@ -12307,7 +12310,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -12343,10 +12346,10 @@
         <v>225</v>
       </c>
       <c r="O124" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P124" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q124" t="s">
         <v>227</v>
@@ -12363,7 +12366,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -12399,10 +12402,10 @@
         <v>225</v>
       </c>
       <c r="O125" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P125" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q125" t="s">
         <v>227</v>
@@ -12419,7 +12422,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -12455,10 +12458,10 @@
         <v>225</v>
       </c>
       <c r="O126" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P126" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q126" t="s">
         <v>227</v>
@@ -12475,7 +12478,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B127" t="s">
         <v>25</v>
@@ -12511,10 +12514,10 @@
         <v>225</v>
       </c>
       <c r="O127" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P127" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q127" t="s">
         <v>227</v>
@@ -12531,7 +12534,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
@@ -12567,10 +12570,10 @@
         <v>225</v>
       </c>
       <c r="O128" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P128" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q128" t="s">
         <v>227</v>
@@ -12587,7 +12590,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
@@ -12623,10 +12626,10 @@
         <v>225</v>
       </c>
       <c r="O129" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P129" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q129" t="s">
         <v>227</v>
@@ -12643,7 +12646,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
@@ -12679,10 +12682,10 @@
         <v>225</v>
       </c>
       <c r="O130" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P130" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q130" t="s">
         <v>227</v>
@@ -12699,7 +12702,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
@@ -12735,10 +12738,10 @@
         <v>225</v>
       </c>
       <c r="O131" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P131" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q131" t="s">
         <v>227</v>
@@ -12755,7 +12758,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
@@ -12791,10 +12794,10 @@
         <v>225</v>
       </c>
       <c r="O132" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P132" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q132" t="s">
         <v>227</v>
@@ -12811,7 +12814,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -12847,10 +12850,10 @@
         <v>225</v>
       </c>
       <c r="O133" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P133" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q133" t="s">
         <v>227</v>
@@ -12867,7 +12870,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -12903,10 +12906,10 @@
         <v>225</v>
       </c>
       <c r="O134" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P134" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q134" t="s">
         <v>227</v>
@@ -12923,7 +12926,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
@@ -12959,10 +12962,10 @@
         <v>225</v>
       </c>
       <c r="O135" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P135" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q135" t="s">
         <v>227</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B136" t="s">
         <v>196</v>
@@ -13015,10 +13018,10 @@
         <v>225</v>
       </c>
       <c r="O136" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P136" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q136" t="s">
         <v>227</v>
@@ -13035,7 +13038,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B137" t="s">
         <v>196</v>
@@ -13071,10 +13074,10 @@
         <v>225</v>
       </c>
       <c r="O137" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P137" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q137" t="s">
         <v>227</v>
@@ -13091,7 +13094,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B138" t="s">
         <v>196</v>
@@ -13127,10 +13130,10 @@
         <v>225</v>
       </c>
       <c r="O138" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P138" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q138" t="s">
         <v>227</v>
@@ -13147,7 +13150,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B139" t="s">
         <v>196</v>
@@ -13183,10 +13186,10 @@
         <v>225</v>
       </c>
       <c r="O139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P139" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q139" t="s">
         <v>227</v>
@@ -13203,7 +13206,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B140" t="s">
         <v>196</v>
@@ -13239,10 +13242,10 @@
         <v>225</v>
       </c>
       <c r="O140" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P140" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q140" t="s">
         <v>227</v>
@@ -13259,7 +13262,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B141" t="s">
         <v>196</v>
@@ -13295,10 +13298,10 @@
         <v>225</v>
       </c>
       <c r="O141" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P141" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q141" t="s">
         <v>227</v>
@@ -13315,7 +13318,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B142" t="s">
         <v>196</v>
@@ -13351,10 +13354,10 @@
         <v>225</v>
       </c>
       <c r="O142" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P142" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q142" t="s">
         <v>227</v>
@@ -13371,7 +13374,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B143" t="s">
         <v>196</v>
@@ -13407,10 +13410,10 @@
         <v>225</v>
       </c>
       <c r="O143" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P143" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Q143" t="s">
         <v>227</v>
@@ -13427,7 +13430,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B144" t="s">
         <v>196</v>
@@ -13463,10 +13466,10 @@
         <v>225</v>
       </c>
       <c r="O144" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P144" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q144" t="s">
         <v>227</v>
@@ -13483,7 +13486,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B145" t="s">
         <v>196</v>
@@ -13519,10 +13522,10 @@
         <v>225</v>
       </c>
       <c r="O145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P145" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q145" t="s">
         <v>227</v>
@@ -13539,7 +13542,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B146" t="s">
         <v>196</v>
@@ -13575,10 +13578,10 @@
         <v>225</v>
       </c>
       <c r="O146" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P146" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q146" t="s">
         <v>227</v>
@@ -13599,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691E3EA4-419B-471A-8196-C2AFFA7D61A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0A166-1270-4453-AB64-B73B1FB75E26}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13608,10 +13611,10 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -23784,7 +23787,7 @@
         <v>228</v>
       </c>
       <c r="R194" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S194" t="s">
         <v>230</v>
@@ -23837,7 +23840,7 @@
         <v>228</v>
       </c>
       <c r="R195" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S195" t="s">
         <v>230</v>
@@ -23881,16 +23884,16 @@
         <v>211</v>
       </c>
       <c r="O196" t="s">
+        <v>410</v>
+      </c>
+      <c r="P196" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>228</v>
+      </c>
+      <c r="R196" t="s">
         <v>409</v>
-      </c>
-      <c r="P196" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>228</v>
-      </c>
-      <c r="R196" t="s">
-        <v>229</v>
       </c>
       <c r="S196" t="s">
         <v>232</v>
@@ -23934,7 +23937,7 @@
         <v>212</v>
       </c>
       <c r="O197" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P197" t="s">
         <v>227</v>
@@ -23943,7 +23946,7 @@
         <v>228</v>
       </c>
       <c r="R197" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S197" t="s">
         <v>232</v>
@@ -23996,7 +23999,7 @@
         <v>228</v>
       </c>
       <c r="R198" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S198" t="s">
         <v>230</v>
@@ -24049,7 +24052,7 @@
         <v>228</v>
       </c>
       <c r="R199" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S199" t="s">
         <v>230</v>
@@ -24093,7 +24096,7 @@
         <v>217</v>
       </c>
       <c r="O200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P200" t="s">
         <v>227</v>
@@ -24102,7 +24105,7 @@
         <v>228</v>
       </c>
       <c r="R200" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S200" t="s">
         <v>232</v>
@@ -24146,7 +24149,7 @@
         <v>218</v>
       </c>
       <c r="O201" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P201" t="s">
         <v>227</v>
@@ -24155,7 +24158,7 @@
         <v>228</v>
       </c>
       <c r="R201" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="S201" t="s">
         <v>232</v>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E223870-D864-451C-8C0B-0D7C4EB9E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEEB2A2-8142-4B30-B87C-B69F312A5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{664AA972-13E3-484A-836F-51D031E24CA7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{81CA7854-019B-479B-8294-F35153970621}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE75B033-9E17-4FBD-AB02-7CCD374C867C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2BC20C-F11A-4EE1-BBD8-BF27C9F7C343}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B23866-AC47-4697-89B1-B2579F693276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D7BA5B-7372-4A3A-8AAF-D16B63AC2144}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDED9B2-A96D-4CF7-8721-1EDBB4EF43D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6061FDD6-85FD-4141-9A0F-0EC8FAE1866E}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEEB2A2-8142-4B30-B87C-B69F312A5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A55A77-A2CA-442E-9B50-78F3A9CC9F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{81CA7854-019B-479B-8294-F35153970621}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C083F7B9-0027-4D04-AC0F-43A0D2558DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2BC20C-F11A-4EE1-BBD8-BF27C9F7C343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAC81E-50B9-45CD-BF34-AC35EBC68FDC}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D7BA5B-7372-4A3A-8AAF-D16B63AC2144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695BE4EA-3EB0-4121-B913-86A64D8E441B}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6061FDD6-85FD-4141-9A0F-0EC8FAE1866E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E256A-D07F-48B2-B0C1-B85636667D19}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A55A77-A2CA-442E-9B50-78F3A9CC9F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{408ACEF4-20ED-4D77-BB14-C5A6D7B084E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C083F7B9-0027-4D04-AC0F-43A0D2558DBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{562B5C71-ED3E-4B31-92D7-9604FC239DA8}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBAC81E-50B9-45CD-BF34-AC35EBC68FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E668B-2F83-4B0F-860D-742D952357B6}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695BE4EA-3EB0-4121-B913-86A64D8E441B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C77787C-8F41-4B9D-A64D-C7ED469A471A}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E256A-D07F-48B2-B0C1-B85636667D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27A1EA6-D8C5-4078-B018-7F2DB0BE7F38}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408ACEF4-20ED-4D77-BB14-C5A6D7B084E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3355B5B4-02BB-44A0-B96F-0C8E8480AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{562B5C71-ED3E-4B31-92D7-9604FC239DA8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{78C4D191-E2E0-4973-A30D-12D588419712}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E668B-2F83-4B0F-860D-742D952357B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0161F-1A69-4A61-BB68-4252D314FB17}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C77787C-8F41-4B9D-A64D-C7ED469A471A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EF1BD9-547C-4D5B-85A2-5398D3AC0801}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27A1EA6-D8C5-4078-B018-7F2DB0BE7F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8A42C-C591-4AA1-BDAF-FB057068CA9A}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3355B5B4-02BB-44A0-B96F-0C8E8480AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{280DD4AA-CEE4-4BF8-A674-A7BCACD86372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{78C4D191-E2E0-4973-A30D-12D588419712}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9311FDA2-6B02-4150-ACF1-BB5DE899E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0161F-1A69-4A61-BB68-4252D314FB17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B934ACB1-C847-4751-BF0A-0C4E570B9432}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EF1BD9-547C-4D5B-85A2-5398D3AC0801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DA60A2-C71A-4579-BAAA-A7FF9D648E29}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8A42C-C591-4AA1-BDAF-FB057068CA9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E7074-802B-4CE7-A5EC-5EF272EF72E8}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{280DD4AA-CEE4-4BF8-A674-A7BCACD86372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FFA639-4894-44A8-8F0B-1AF033DA51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9311FDA2-6B02-4150-ACF1-BB5DE899E46E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{500EAEEB-08CB-4919-93B3-ECE1EDC56DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B934ACB1-C847-4751-BF0A-0C4E570B9432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7A64D-1247-4C08-8981-F3FBC7F6CEAE}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DA60A2-C71A-4579-BAAA-A7FF9D648E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8ABCA5-DA5E-408E-9266-B1F788E27D69}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E7074-802B-4CE7-A5EC-5EF272EF72E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34853910-2B7C-49DE-8A99-0FB67BB1C6B9}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26FFA639-4894-44A8-8F0B-1AF033DA51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7626C3B2-A714-4820-972E-700F9A022F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{500EAEEB-08CB-4919-93B3-ECE1EDC56DC3}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{400BB69E-AC5B-47C5-8872-E6A7F8D2BD0F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7A64D-1247-4C08-8981-F3FBC7F6CEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCBB1D-CCF2-4FA8-B644-872D92DE022D}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8ABCA5-DA5E-408E-9266-B1F788E27D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2B242-6CDF-41F9-A834-0A20A40A9FA4}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34853910-2B7C-49DE-8A99-0FB67BB1C6B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539285C0-953E-48CC-BE4B-8BCEB6F813C1}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7626C3B2-A714-4820-972E-700F9A022F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{253595A2-F64B-4978-8095-F186D922DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{400BB69E-AC5B-47C5-8872-E6A7F8D2BD0F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2C29C7DE-0589-4BDF-A4D2-B7D29199BDEF}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCBB1D-CCF2-4FA8-B644-872D92DE022D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7588D6DD-8381-4D71-AAFE-1C73CE44780F}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2B242-6CDF-41F9-A834-0A20A40A9FA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CEF1F-0B12-4438-8CBC-B6CFD6D7F5B3}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539285C0-953E-48CC-BE4B-8BCEB6F813C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14841CB-BE88-4FB1-8E10-87F3407DD828}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253595A2-F64B-4978-8095-F186D922DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF79327-8360-4718-B86E-39D76D7ED5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2C29C7DE-0589-4BDF-A4D2-B7D29199BDEF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1F24218-F8CB-4CDF-8052-D25FD10DCAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="729">
   <si>
     <t>process</t>
   </si>
@@ -2176,7 +2176,7 @@
     <t>Gas turbine</t>
   </si>
   <si>
-    <t>Geothermal</t>
+    <t>Geothermal plant</t>
   </si>
   <si>
     <t>Hydropower - large-scale unit</t>
@@ -2191,7 +2191,10 @@
     <t>IGCC + CCS</t>
   </si>
   <si>
-    <t>Marine</t>
+    <t>Marine power</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Nuclear large</t>
@@ -2592,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7588D6DD-8381-4D71-AAFE-1C73CE44780F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F358740-22A6-42C5-8932-BB84BB92A672}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3374,7 +3377,7 @@
         <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M21" t="s">
         <v>227</v>
@@ -3415,7 +3418,7 @@
         <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M22" t="s">
         <v>227</v>
@@ -3456,7 +3459,7 @@
         <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -3497,7 +3500,7 @@
         <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M24" t="s">
         <v>227</v>
@@ -3538,7 +3541,7 @@
         <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M25" t="s">
         <v>227</v>
@@ -3579,7 +3582,7 @@
         <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M26" t="s">
         <v>227</v>
@@ -3620,7 +3623,7 @@
         <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M27" t="s">
         <v>227</v>
@@ -3661,7 +3664,7 @@
         <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M28" t="s">
         <v>227</v>
@@ -3702,7 +3705,7 @@
         <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M29" t="s">
         <v>227</v>
@@ -4596,7 +4599,7 @@
         <v>717</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -4619,7 +4622,7 @@
         <v>717</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -4642,7 +4645,7 @@
         <v>717</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -4665,7 +4668,7 @@
         <v>717</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -4688,7 +4691,7 @@
         <v>717</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>718</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -4708,10 +4711,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B73" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -4731,10 +4734,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B74" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -4754,10 +4757,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B75" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4777,7 +4780,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -4800,7 +4803,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4823,7 +4826,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -4846,7 +4849,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B79" t="s">
         <v>208</v>
@@ -4869,7 +4872,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B80" t="s">
         <v>208</v>
@@ -4892,7 +4895,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B81" t="s">
         <v>208</v>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B82" t="s">
         <v>208</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B83" t="s">
         <v>208</v>
@@ -4961,7 +4964,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B85" t="s">
         <v>208</v>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B86" t="s">
         <v>208</v>
@@ -5030,7 +5033,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B88" t="s">
         <v>208</v>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -5122,7 +5125,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5145,7 +5148,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
@@ -5191,7 +5194,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -5214,7 +5217,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
@@ -5237,7 +5240,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -5260,7 +5263,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B98" t="s">
         <v>214</v>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B99" t="s">
         <v>214</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B100" t="s">
         <v>214</v>
@@ -5352,7 +5355,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B101" t="s">
         <v>214</v>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B102" t="s">
         <v>214</v>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B103" t="s">
         <v>214</v>
@@ -5421,7 +5424,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B104" t="s">
         <v>214</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B105" t="s">
         <v>214</v>
@@ -5467,7 +5470,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B107" t="s">
         <v>214</v>
@@ -5517,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239CEF1F-0B12-4438-8CBC-B6CFD6D7F5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82009A60-6719-421E-BD62-D800C42865CF}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13602,7 +13605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14841CB-BE88-4FB1-8E10-87F3407DD828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48C0D2B-CAC2-47FC-9B2C-DEF812BE1224}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF79327-8360-4718-B86E-39D76D7ED5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B43E2A-8CB0-4A87-BCED-ABAC3242A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1F24218-F8CB-4CDF-8052-D25FD10DCAA7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{79CCCEDC-5154-4DD4-89B2-26736A98F84B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2595,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F358740-22A6-42C5-8932-BB84BB92A672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9BCCE-7798-423C-A23E-16377FA415EF}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5520,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82009A60-6719-421E-BD62-D800C42865CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ABFCE7-92F7-431F-98DA-36BB40F45A35}">
   <dimension ref="A2:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13605,7 +13605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48C0D2B-CAC2-47FC-9B2C-DEF812BE1224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1F1ABD-EC06-4FAB-B7E8-FAA7F2DA90D5}">
   <dimension ref="A2:S348"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36F6E2BD-799C-4005-AE66-8645CD57487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{785AAFEE-0319-4046-BCD7-0A9A471BD71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9D4B0DE8-DFC9-4537-B2F1-5E407E5EC1F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CE40EBC5-037F-4DBE-B2AC-3FB9266AE639}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4700" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="745">
   <si>
     <t>process</t>
   </si>
@@ -673,7 +673,7 @@
     <t>ep_oil_steam_turbine_G100000412796</t>
   </si>
   <si>
-    <t>ep_solar_PV</t>
+    <t>ep_solar_pv</t>
   </si>
   <si>
     <t>solar</t>
@@ -682,16 +682,16 @@
     <t>ELC_Sol-ITA</t>
   </si>
   <si>
-    <t>ep_solar_solar</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100000827005</t>
-  </si>
-  <si>
-    <t>ep_solar_solar_G100001004931</t>
+    <t>ep_solar_pv_</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100000827005</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_G100001004931</t>
+  </si>
+  <si>
+    <t>ep_solar_thermal</t>
   </si>
   <si>
     <t>ep_wind_offshore</t>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E53F2-905E-4782-9145-F485C363BFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D983444B-51B6-4EFF-8DCE-8148216FAAAD}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1567B7FE-E58C-4725-A397-361FD2155172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61D3CE-C340-4524-84D8-878DDED52402}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,8 +13765,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D205A65-D013-44FB-B435-0930FCFBC701}">
-  <dimension ref="A2:S354"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5877773-426A-491F-B7F8-FDC1D0E26976}">
+  <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24206,7 +24206,7 @@
         <v>214</v>
       </c>
       <c r="O199" t="s">
-        <v>232</v>
+        <v>420</v>
       </c>
       <c r="P199" t="s">
         <v>233</v>
@@ -24259,7 +24259,7 @@
         <v>215</v>
       </c>
       <c r="O200" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P200" t="s">
         <v>233</v>
@@ -24271,7 +24271,7 @@
         <v>419</v>
       </c>
       <c r="S200" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.45">
@@ -24312,7 +24312,7 @@
         <v>216</v>
       </c>
       <c r="O201" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P201" t="s">
         <v>233</v>
@@ -24365,7 +24365,7 @@
         <v>217</v>
       </c>
       <c r="O202" t="s">
-        <v>422</v>
+        <v>232</v>
       </c>
       <c r="P202" t="s">
         <v>233</v>
@@ -24377,7 +24377,7 @@
         <v>419</v>
       </c>
       <c r="S202" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.45">
@@ -27411,7 +27411,7 @@
         <v>2009</v>
       </c>
       <c r="E294">
-        <v>9.300000000000001E-3</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -27420,7 +27420,7 @@
         <v>1336.5</v>
       </c>
       <c r="H294">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -27443,16 +27443,16 @@
         <v>2010</v>
       </c>
       <c r="E295">
-        <v>6.0000000000000001E-3</v>
+        <v>0.15930000000000002</v>
       </c>
       <c r="F295">
         <v>1</v>
       </c>
       <c r="G295">
-        <v>1336.5</v>
+        <v>1249.4943502824856</v>
       </c>
       <c r="H295">
-        <v>21.450000000000003</v>
+        <v>19.999905838041428</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -27475,16 +27475,16 @@
         <v>2011</v>
       </c>
       <c r="E296">
-        <v>8.270000000000001E-2</v>
+        <v>0.36079999999999995</v>
       </c>
       <c r="F296">
         <v>1</v>
       </c>
       <c r="G296">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H296">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -27504,10 +27504,10 @@
         <v>213</v>
       </c>
       <c r="D297">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E297">
-        <v>1.2999999999999999E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -27522,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.45">
@@ -27536,10 +27536,10 @@
         <v>213</v>
       </c>
       <c r="D298">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E298">
-        <v>1.1900000000000001E-2</v>
+        <v>5.4099999999999995E-2</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -27548,13 +27548,13 @@
         <v>1336.5</v>
       </c>
       <c r="H298">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I298">
         <v>0</v>
       </c>
       <c r="J298">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.45">
@@ -27568,25 +27568,25 @@
         <v>213</v>
       </c>
       <c r="D299">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E299">
-        <v>0.01</v>
+        <v>3.6326999999999985</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
       <c r="G299">
-        <v>1336.5</v>
+        <v>1332.9026756957649</v>
       </c>
       <c r="H299">
-        <v>21.450000000000003</v>
+        <v>21.3900445949294</v>
       </c>
       <c r="I299">
         <v>0</v>
       </c>
       <c r="J299">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.45">
@@ -27600,10 +27600,10 @@
         <v>213</v>
       </c>
       <c r="D300">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E300">
-        <v>9.6999999999999986E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.45">
@@ -27632,30 +27632,30 @@
         <v>213</v>
       </c>
       <c r="D301">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="E301">
-        <v>5.0999999999999997E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
       <c r="G301">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H301">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I301">
         <v>0</v>
       </c>
       <c r="J301">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B302" t="s">
         <v>212</v>
@@ -27664,18 +27664,30 @@
         <v>213</v>
       </c>
       <c r="D302">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="E302">
-        <v>0.05</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F302">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>1189.8065693430658</v>
+      </c>
+      <c r="H302">
+        <v>19.005109489051097</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>35</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B303" t="s">
         <v>212</v>
@@ -27684,18 +27696,30 @@
         <v>213</v>
       </c>
       <c r="D303">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="E303">
-        <v>0.158</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F303">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>1336.5</v>
+      </c>
+      <c r="H303">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>34</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B304" t="s">
         <v>212</v>
@@ -27704,18 +27728,30 @@
         <v>213</v>
       </c>
       <c r="D304">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="E304">
-        <v>0.27810000000000001</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F304">
-        <v>0.33122999999999991</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>1336.5</v>
+      </c>
+      <c r="H304">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B305" t="s">
         <v>212</v>
@@ -27724,18 +27760,30 @@
         <v>213</v>
       </c>
       <c r="D305">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="E305">
-        <v>5.9499999999999997E-2</v>
+        <v>0.128</v>
       </c>
       <c r="F305">
-        <v>0.33123000000000008</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>1228.21875</v>
+      </c>
+      <c r="H305">
+        <v>19.645312500000003</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B306" t="s">
         <v>212</v>
@@ -27744,18 +27792,30 @@
         <v>213</v>
       </c>
       <c r="D306">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="E306">
-        <v>4.1099999999999998E-2</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="F306">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1197.863802559415</v>
+      </c>
+      <c r="H306">
+        <v>19.139396709323584</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B307" t="s">
         <v>212</v>
@@ -27764,18 +27824,30 @@
         <v>213</v>
       </c>
       <c r="D307">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="E307">
-        <v>1E-3</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F307">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G307">
+        <v>1209.375</v>
+      </c>
+      <c r="H307">
+        <v>19.331250000000001</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B308" t="s">
         <v>212</v>
@@ -27784,18 +27856,30 @@
         <v>213</v>
       </c>
       <c r="D308">
-        <v>2015</v>
+        <v>2026</v>
       </c>
       <c r="E308">
-        <v>3.6207999999999978</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F308">
-        <v>0.33123000000000086</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>1336.5</v>
+      </c>
+      <c r="H308">
+        <v>21.450000000000003</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B309" t="s">
         <v>212</v>
@@ -27804,16 +27888,28 @@
         <v>213</v>
       </c>
       <c r="D309">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="E309">
-        <v>2.5999999999999999E-2</v>
+        <v>0.2001</v>
       </c>
       <c r="F309">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1244.3770614692653</v>
+      </c>
+      <c r="H309">
+        <v>19.914617691154426</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>214</v>
       </c>
@@ -27824,18 +27920,30 @@
         <v>213</v>
       </c>
       <c r="D310">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E310">
-        <v>0.27400000000000002</v>
+        <v>19.880468</v>
       </c>
       <c r="F310">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>990.00000000000011</v>
+      </c>
+      <c r="H310">
+        <v>16.5</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B311" t="s">
         <v>212</v>
@@ -27844,18 +27952,30 @@
         <v>213</v>
       </c>
       <c r="D311">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="E311">
-        <v>2.3300000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F311">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>1138.5</v>
+      </c>
+      <c r="H311">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B312" t="s">
         <v>212</v>
@@ -27864,18 +27984,30 @@
         <v>213</v>
       </c>
       <c r="D312">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E312">
-        <v>5.0999999999999995E-3</v>
+        <v>0.17</v>
       </c>
       <c r="F312">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>1138.5</v>
+      </c>
+      <c r="H312">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B313" t="s">
         <v>212</v>
@@ -27884,18 +28016,30 @@
         <v>213</v>
       </c>
       <c r="D313">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="E313">
-        <v>0.128</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F313">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>8167.5000000000009</v>
+      </c>
+      <c r="H313">
+        <v>92.95</v>
+      </c>
+      <c r="I313">
+        <v>2.52</v>
+      </c>
+      <c r="J313">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B314" t="s">
         <v>212</v>
@@ -27904,18 +28048,30 @@
         <v>213</v>
       </c>
       <c r="D314">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="E314">
-        <v>0.2225</v>
+        <v>1E-3</v>
       </c>
       <c r="F314">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>8167.5000000000018</v>
+      </c>
+      <c r="H314">
+        <v>92.95</v>
+      </c>
+      <c r="I314">
+        <v>2.52</v>
+      </c>
+      <c r="J314">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B315" t="s">
         <v>212</v>
@@ -27924,18 +28080,30 @@
         <v>213</v>
       </c>
       <c r="D315">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E315">
-        <v>0.17599999999999999</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F315">
-        <v>0.33122999999999997</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>8167.5000000000018</v>
+      </c>
+      <c r="H315">
+        <v>92.95</v>
+      </c>
+      <c r="I315">
+        <v>2.52</v>
+      </c>
+      <c r="J315">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B316" t="s">
         <v>212</v>
@@ -27944,98 +28112,158 @@
         <v>213</v>
       </c>
       <c r="D316">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="E316">
-        <v>3.7999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F316">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>8167.5000000000018</v>
+      </c>
+      <c r="H316">
+        <v>92.95</v>
+      </c>
+      <c r="I316">
+        <v>2.52</v>
+      </c>
+      <c r="J316">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B317" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C317" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D317">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="E317">
-        <v>0.20810000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F317">
-        <v>0.33123000000000008</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>5940.0000000000009</v>
+      </c>
+      <c r="H317">
+        <v>143</v>
+      </c>
+      <c r="I317">
+        <v>3.78</v>
+      </c>
+      <c r="J317">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B318" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C318" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D318">
-        <v>2022</v>
+        <v>1996</v>
       </c>
       <c r="E318">
-        <v>19.880468</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F318">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>2376</v>
+      </c>
+      <c r="H318">
+        <v>57.2</v>
+      </c>
+      <c r="I318">
+        <v>2.52</v>
+      </c>
+      <c r="J318">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B319" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C319" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D319">
-        <v>2028</v>
+        <v>1997</v>
       </c>
       <c r="E319">
-        <v>0.15</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F319">
-        <v>0.33123000000000002</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>2376</v>
+      </c>
+      <c r="H319">
+        <v>57.2</v>
+      </c>
+      <c r="I319">
+        <v>2.52</v>
+      </c>
+      <c r="J319">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B320" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C320" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D320">
-        <v>2025</v>
+        <v>1998</v>
       </c>
       <c r="E320">
-        <v>0.17</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F320">
-        <v>0.33123000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>2376</v>
+      </c>
+      <c r="H320">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="I320">
+        <v>2.5199999999999996</v>
+      </c>
+      <c r="J320">
+        <v>57</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B321" t="s">
         <v>219</v>
@@ -28044,25 +28272,25 @@
         <v>220</v>
       </c>
       <c r="D321">
-        <v>2022</v>
+        <v>1999</v>
       </c>
       <c r="E321">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F321">
         <v>1</v>
       </c>
       <c r="G321">
-        <v>5940.0000000000009</v>
+        <v>2376</v>
       </c>
       <c r="H321">
-        <v>143</v>
+        <v>57.2</v>
       </c>
       <c r="I321">
-        <v>3.78</v>
+        <v>2.52</v>
       </c>
       <c r="J321">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.45">
@@ -28076,10 +28304,10 @@
         <v>220</v>
       </c>
       <c r="D322">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E322">
-        <v>1.7000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -28088,13 +28316,13 @@
         <v>2376</v>
       </c>
       <c r="H322">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I322">
-        <v>2.52</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J322">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.45">
@@ -28108,10 +28336,10 @@
         <v>220</v>
       </c>
       <c r="D323">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E323">
-        <v>2.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -28120,13 +28348,13 @@
         <v>2376</v>
       </c>
       <c r="H323">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I323">
         <v>2.52</v>
       </c>
       <c r="J323">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.45">
@@ -28140,10 +28368,10 @@
         <v>220</v>
       </c>
       <c r="D324">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E324">
-        <v>4.5999999999999999E-2</v>
+        <v>9.7799999999999998E-2</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -28152,13 +28380,13 @@
         <v>2376</v>
       </c>
       <c r="H324">
-        <v>57.199999999999996</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I324">
-        <v>2.5199999999999996</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="J324">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.45">
@@ -28172,7 +28400,7 @@
         <v>220</v>
       </c>
       <c r="D325">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E325">
         <v>3.3000000000000002E-2</v>
@@ -28190,7 +28418,7 @@
         <v>2.52</v>
       </c>
       <c r="J325">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.45">
@@ -28204,10 +28432,10 @@
         <v>220</v>
       </c>
       <c r="D326">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E326">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -28216,13 +28444,13 @@
         <v>2376</v>
       </c>
       <c r="H326">
-        <v>57.20000000000001</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I326">
-        <v>2.5199999999999996</v>
+        <v>2.52</v>
       </c>
       <c r="J326">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.45">
@@ -28236,25 +28464,25 @@
         <v>220</v>
       </c>
       <c r="D327">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E327">
-        <v>9.4E-2</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
       <c r="G327">
-        <v>2376</v>
+        <v>2182.8827930174562</v>
       </c>
       <c r="H327">
-        <v>57.20000000000001</v>
+        <v>52.372069825436419</v>
       </c>
       <c r="I327">
-        <v>2.52</v>
+        <v>2.4047880299251871</v>
       </c>
       <c r="J327">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.45">
@@ -28268,10 +28496,10 @@
         <v>220</v>
       </c>
       <c r="D328">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E328">
-        <v>9.7799999999999998E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -28280,13 +28508,13 @@
         <v>2376</v>
       </c>
       <c r="H328">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I328">
-        <v>2.5200000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J328">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.45">
@@ -28300,25 +28528,25 @@
         <v>220</v>
       </c>
       <c r="D329">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E329">
-        <v>3.3000000000000002E-2</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F329">
         <v>1</v>
       </c>
       <c r="G329">
-        <v>2376</v>
+        <v>2295.9241706161138</v>
       </c>
       <c r="H329">
-        <v>57.2</v>
+        <v>55.198104265402847</v>
       </c>
       <c r="I329">
-        <v>2.52</v>
+        <v>2.4722274881516588</v>
       </c>
       <c r="J329">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.45">
@@ -28332,25 +28560,25 @@
         <v>220</v>
       </c>
       <c r="D330">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E330">
-        <v>3.5999999999999997E-2</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F330">
         <v>1</v>
       </c>
       <c r="G330">
-        <v>2376</v>
+        <v>2218.9009762900978</v>
       </c>
       <c r="H330">
-        <v>57.199999999999996</v>
+        <v>53.27252440725244</v>
       </c>
       <c r="I330">
-        <v>2.52</v>
+        <v>2.4262761506276154</v>
       </c>
       <c r="J330">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.45">
@@ -28364,25 +28592,25 @@
         <v>220</v>
       </c>
       <c r="D331">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E331">
-        <v>0.40100000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F331">
         <v>1</v>
       </c>
       <c r="G331">
-        <v>2182.8827930174562</v>
+        <v>2260.4787644787643</v>
       </c>
       <c r="H331">
-        <v>52.372069825436419</v>
+        <v>54.311969111969113</v>
       </c>
       <c r="I331">
-        <v>2.4047880299251871</v>
+        <v>2.4510810810810817</v>
       </c>
       <c r="J331">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.45">
@@ -28396,25 +28624,25 @@
         <v>220</v>
       </c>
       <c r="D332">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E332">
-        <v>0.14299999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F332">
         <v>1</v>
       </c>
       <c r="G332">
-        <v>2376</v>
+        <v>2250.1300309597523</v>
       </c>
       <c r="H332">
-        <v>57.2</v>
+        <v>54.05325077399381</v>
       </c>
       <c r="I332">
-        <v>2.52</v>
+        <v>2.4449071207430344</v>
       </c>
       <c r="J332">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.45">
@@ -28428,25 +28656,25 @@
         <v>220</v>
       </c>
       <c r="D333">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E333">
-        <v>0.63300000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
       <c r="G333">
-        <v>2295.9241706161138</v>
+        <v>2158.1305263157897</v>
       </c>
       <c r="H333">
-        <v>55.198104265402847</v>
+        <v>51.753263157894736</v>
       </c>
       <c r="I333">
-        <v>2.4722274881516588</v>
+        <v>2.3900210526315795</v>
       </c>
       <c r="J333">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.45">
@@ -28460,25 +28688,25 @@
         <v>220</v>
       </c>
       <c r="D334">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E334">
-        <v>0.71699999999999997</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="F334">
         <v>1</v>
       </c>
       <c r="G334">
-        <v>2218.9009762900978</v>
+        <v>2314.8923959827835</v>
       </c>
       <c r="H334">
-        <v>53.27252440725244</v>
+        <v>55.672309899569584</v>
       </c>
       <c r="I334">
-        <v>2.4262761506276154</v>
+        <v>2.4835437589670013</v>
       </c>
       <c r="J334">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.45">
@@ -28492,25 +28720,25 @@
         <v>220</v>
       </c>
       <c r="D335">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E335">
-        <v>0.77700000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F335">
         <v>1</v>
       </c>
       <c r="G335">
-        <v>2260.4787644787643</v>
+        <v>2204.6844106463877</v>
       </c>
       <c r="H335">
-        <v>54.311969111969113</v>
+        <v>52.917110266159696</v>
       </c>
       <c r="I335">
-        <v>2.4510810810810817</v>
+        <v>2.4177946768060843</v>
       </c>
       <c r="J335">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.45">
@@ -28524,25 +28752,25 @@
         <v>220</v>
       </c>
       <c r="D336">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E336">
-        <v>0.64600000000000002</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F336">
         <v>1</v>
       </c>
       <c r="G336">
-        <v>2250.1300309597523</v>
+        <v>2376</v>
       </c>
       <c r="H336">
-        <v>54.05325077399381</v>
+        <v>57.2</v>
       </c>
       <c r="I336">
-        <v>2.4449071207430344</v>
+        <v>2.52</v>
       </c>
       <c r="J336">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.45">
@@ -28556,25 +28784,25 @@
         <v>220</v>
       </c>
       <c r="D337">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E337">
-        <v>0.95</v>
+        <v>2.4205999999999999</v>
       </c>
       <c r="F337">
         <v>1</v>
       </c>
       <c r="G337">
-        <v>2158.1305263157897</v>
+        <v>2335.8644964058499</v>
       </c>
       <c r="H337">
-        <v>51.753263157894736</v>
+        <v>56.196612410146251</v>
       </c>
       <c r="I337">
-        <v>2.3900210526315795</v>
+        <v>2.4960555234239439</v>
       </c>
       <c r="J337">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.45">
@@ -28588,25 +28816,25 @@
         <v>220</v>
       </c>
       <c r="D338">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E338">
-        <v>0.69699999999999995</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F338">
         <v>1</v>
       </c>
       <c r="G338">
-        <v>2314.8923959827835</v>
+        <v>2376</v>
       </c>
       <c r="H338">
-        <v>55.672309899569584</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I338">
-        <v>2.4835437589670013</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J338">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.45">
@@ -28620,25 +28848,25 @@
         <v>220</v>
       </c>
       <c r="D339">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E339">
-        <v>0.26300000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F339">
         <v>1</v>
       </c>
       <c r="G339">
-        <v>2204.6844106463877</v>
+        <v>2184</v>
       </c>
       <c r="H339">
-        <v>52.917110266159696</v>
+        <v>52.4</v>
       </c>
       <c r="I339">
-        <v>2.4177946768060843</v>
+        <v>2.4054545454545457</v>
       </c>
       <c r="J339">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.45">
@@ -28652,10 +28880,10 @@
         <v>220</v>
       </c>
       <c r="D340">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E340">
-        <v>8.8999999999999996E-2</v>
+        <v>0.218</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -28664,13 +28892,13 @@
         <v>2376</v>
       </c>
       <c r="H340">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I340">
         <v>2.52</v>
       </c>
       <c r="J340">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.45">
@@ -28684,25 +28912,25 @@
         <v>220</v>
       </c>
       <c r="D341">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E341">
-        <v>2.4205999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F341">
         <v>1</v>
       </c>
       <c r="G341">
-        <v>2335.8644964058499</v>
+        <v>2301.6434108527133</v>
       </c>
       <c r="H341">
-        <v>56.196612410146251</v>
+        <v>55.34108527131783</v>
       </c>
       <c r="I341">
-        <v>2.4960555234239439</v>
+        <v>2.475639534883721</v>
       </c>
       <c r="J341">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.45">
@@ -28716,10 +28944,10 @@
         <v>220</v>
       </c>
       <c r="D342">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E342">
-        <v>9.6000000000000002E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -28728,13 +28956,13 @@
         <v>2376</v>
       </c>
       <c r="H342">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I342">
-        <v>2.5199999999999996</v>
+        <v>2.52</v>
       </c>
       <c r="J342">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
@@ -28748,25 +28976,25 @@
         <v>220</v>
       </c>
       <c r="D343">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E343">
-        <v>0.20899999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="F343">
         <v>1</v>
       </c>
       <c r="G343">
-        <v>2184</v>
+        <v>2241.640378548896</v>
       </c>
       <c r="H343">
-        <v>52.4</v>
+        <v>53.841009463722408</v>
       </c>
       <c r="I343">
-        <v>2.4054545454545457</v>
+        <v>2.4398422712933754</v>
       </c>
       <c r="J343">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.45">
@@ -28780,10 +29008,10 @@
         <v>220</v>
       </c>
       <c r="D344">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E344">
-        <v>0.218</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -28792,13 +29020,13 @@
         <v>2376</v>
       </c>
       <c r="H344">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I344">
         <v>2.52</v>
       </c>
       <c r="J344">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
@@ -28812,25 +29040,25 @@
         <v>220</v>
       </c>
       <c r="D345">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="E345">
-        <v>0.51600000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="F345">
         <v>1</v>
       </c>
       <c r="G345">
-        <v>2301.6434108527133</v>
+        <v>2185.2387096774191</v>
       </c>
       <c r="H345">
-        <v>55.34108527131783</v>
+        <v>52.43096774193549</v>
       </c>
       <c r="I345">
-        <v>2.475639534883721</v>
+        <v>2.4061935483870971</v>
       </c>
       <c r="J345">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
@@ -28844,25 +29072,25 @@
         <v>220</v>
       </c>
       <c r="D346">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E346">
-        <v>0.11799999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F346">
         <v>1</v>
       </c>
       <c r="G346">
-        <v>2376</v>
+        <v>2024</v>
       </c>
       <c r="H346">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I346">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J346">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
@@ -28876,30 +29104,30 @@
         <v>220</v>
       </c>
       <c r="D347">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="E347">
-        <v>0.317</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F347">
         <v>1</v>
       </c>
       <c r="G347">
-        <v>2241.640378548896</v>
+        <v>2376</v>
       </c>
       <c r="H347">
-        <v>53.841009463722408</v>
+        <v>57.2</v>
       </c>
       <c r="I347">
-        <v>2.4398422712933754</v>
+        <v>2.52</v>
       </c>
       <c r="J347">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B348" t="s">
         <v>219</v>
@@ -28908,30 +29136,30 @@
         <v>220</v>
       </c>
       <c r="D348">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E348">
-        <v>0.14360000000000001</v>
+        <v>2.0221080000000011</v>
       </c>
       <c r="F348">
         <v>1</v>
       </c>
       <c r="G348">
-        <v>2376</v>
+        <v>1760.0000000000002</v>
       </c>
       <c r="H348">
-        <v>57.2</v>
+        <v>44</v>
       </c>
       <c r="I348">
-        <v>2.52</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J348">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B349" t="s">
         <v>219</v>
@@ -28940,30 +29168,30 @@
         <v>220</v>
       </c>
       <c r="D349">
+        <v>2011</v>
+      </c>
+      <c r="E349">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
         <v>2024</v>
       </c>
-      <c r="E349">
-        <v>0.155</v>
-      </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-      <c r="G349">
-        <v>2185.2387096774191</v>
-      </c>
       <c r="H349">
-        <v>52.43096774193549</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I349">
-        <v>2.4061935483870971</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J349">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B350" t="s">
         <v>219</v>
@@ -28972,10 +29200,10 @@
         <v>220</v>
       </c>
       <c r="D350">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E350">
-        <v>5.3999999999999999E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -28990,134 +29218,6 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J350">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A351" t="s">
-        <v>221</v>
-      </c>
-      <c r="B351" t="s">
-        <v>219</v>
-      </c>
-      <c r="C351" t="s">
-        <v>220</v>
-      </c>
-      <c r="D351">
-        <v>2028</v>
-      </c>
-      <c r="E351">
-        <v>1.32E-2</v>
-      </c>
-      <c r="F351">
-        <v>1</v>
-      </c>
-      <c r="G351">
-        <v>2376</v>
-      </c>
-      <c r="H351">
-        <v>57.2</v>
-      </c>
-      <c r="I351">
-        <v>2.52</v>
-      </c>
-      <c r="J351">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A352" t="s">
-        <v>222</v>
-      </c>
-      <c r="B352" t="s">
-        <v>219</v>
-      </c>
-      <c r="C352" t="s">
-        <v>220</v>
-      </c>
-      <c r="D352">
-        <v>2022</v>
-      </c>
-      <c r="E352">
-        <v>2.0221080000000011</v>
-      </c>
-      <c r="F352">
-        <v>1</v>
-      </c>
-      <c r="G352">
-        <v>1760.0000000000002</v>
-      </c>
-      <c r="H352">
-        <v>44</v>
-      </c>
-      <c r="I352">
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="J352">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A353" t="s">
-        <v>223</v>
-      </c>
-      <c r="B353" t="s">
-        <v>219</v>
-      </c>
-      <c r="C353" t="s">
-        <v>220</v>
-      </c>
-      <c r="D353">
-        <v>2011</v>
-      </c>
-      <c r="E353">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F353">
-        <v>1</v>
-      </c>
-      <c r="G353">
-        <v>2024</v>
-      </c>
-      <c r="H353">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I353">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J353">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A354" t="s">
-        <v>224</v>
-      </c>
-      <c r="B354" t="s">
-        <v>219</v>
-      </c>
-      <c r="C354" t="s">
-        <v>220</v>
-      </c>
-      <c r="D354">
-        <v>2024</v>
-      </c>
-      <c r="E354">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F354">
-        <v>1</v>
-      </c>
-      <c r="G354">
-        <v>2024</v>
-      </c>
-      <c r="H354">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="I354">
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="J354">
         <v>31</v>
       </c>
     </row>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785AAFEE-0319-4046-BCD7-0A9A471BD71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F393DB-CEBB-499F-84F3-E0A97F5588C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CE40EBC5-037F-4DBE-B2AC-3FB9266AE639}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09209C89-F717-44B7-8455-A39D310B1968}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D983444B-51B6-4EFF-8DCE-8148216FAAAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FC875C-64AE-4F40-AA07-AE1BB8387546}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61D3CE-C340-4524-84D8-878DDED52402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157B806-2EC7-4090-ADCA-F1E6D5648864}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5877773-426A-491F-B7F8-FDC1D0E26976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47861B-89A3-4706-9410-8ED958CB5572}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F393DB-CEBB-499F-84F3-E0A97F5588C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7330B884-5EDB-439A-8BAA-3C81FB6A9D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{09209C89-F717-44B7-8455-A39D310B1968}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E30C7283-6013-4278-A493-C4AE9224547C}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FC875C-64AE-4F40-AA07-AE1BB8387546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CD990-95A7-4155-92E4-A8051415DBEA}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E157B806-2EC7-4090-ADCA-F1E6D5648864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050357B-A1B8-4BE7-9139-E4A33C9D7E79}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47861B-89A3-4706-9410-8ED958CB5572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC6C5E-1507-41F9-A44E-DA2C785BC1BC}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7330B884-5EDB-439A-8BAA-3C81FB6A9D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F75F21C-F675-4255-A0FF-960F8B7C59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E30C7283-6013-4278-A493-C4AE9224547C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0C27A02-4B1F-4A61-9A1F-01DF89EB36E2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CD990-95A7-4155-92E4-A8051415DBEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C3EEFD-F871-40DC-ABA4-8CEBA70DB41A}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050357B-A1B8-4BE7-9139-E4A33C9D7E79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B163B-0235-479B-A789-4947C5FD3CA3}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFC6C5E-1507-41F9-A44E-DA2C785BC1BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258DEC42-A28C-42FF-B9B4-A821DAA28D6A}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F75F21C-F675-4255-A0FF-960F8B7C59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA38582-DBDE-4D45-A5F5-C6AD9A1EA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0C27A02-4B1F-4A61-9A1F-01DF89EB36E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8F7286F-FC28-443D-AA8B-C98E6BC48504}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C3EEFD-F871-40DC-ABA4-8CEBA70DB41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF6D149-2AD7-4302-A26F-60C022C5FEEA}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B163B-0235-479B-A789-4947C5FD3CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCE5EF6-6013-4483-BCC4-74EFF27BE15A}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258DEC42-A28C-42FF-B9B4-A821DAA28D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB2D0BF-4539-478B-856A-A7A2009FA46E}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA38582-DBDE-4D45-A5F5-C6AD9A1EA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0FB417-3DA3-4C3E-BA76-A1DEBC310176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8F7286F-FC28-443D-AA8B-C98E6BC48504}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0A6C4C4D-FD96-4B04-81B0-083F07542CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF6D149-2AD7-4302-A26F-60C022C5FEEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DAA53B-0D64-4832-992B-2D740ED885E3}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCE5EF6-6013-4483-BCC4-74EFF27BE15A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50480B5-B2D7-4441-A9F5-7FD44873371B}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB2D0BF-4539-478B-856A-A7A2009FA46E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEE0EDF-37CF-4B00-9FAE-8902D3C16724}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0FB417-3DA3-4C3E-BA76-A1DEBC310176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3D22CA-FF10-4582-BD3B-034710184917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0A6C4C4D-FD96-4B04-81B0-083F07542CFC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{915A5A56-7E52-41E4-AB91-9C04D4CB918A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DAA53B-0D64-4832-992B-2D740ED885E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C56B48D-65ED-4FE7-8CDD-0E6D4BD0FB43}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50480B5-B2D7-4441-A9F5-7FD44873371B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BB695-3F06-445E-983E-40090722D088}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEE0EDF-37CF-4B00-9FAE-8902D3C16724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DD435-CDB8-49BB-B9E8-5BDD42FFB075}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3D22CA-FF10-4582-BD3B-034710184917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96236B7C-47D8-4CAC-B472-58B425694E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{915A5A56-7E52-41E4-AB91-9C04D4CB918A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0451BD9F-BCE4-4703-9B0B-505E5C1DFAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C56B48D-65ED-4FE7-8CDD-0E6D4BD0FB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CF51F0-E53C-4168-BA72-86B5E37E79C9}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BB695-3F06-445E-983E-40090722D088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29224-C3E9-4F2A-94E0-CDD86791D399}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DD435-CDB8-49BB-B9E8-5BDD42FFB075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EB0D-84FC-4685-9C41-C1F13C79BE84}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96236B7C-47D8-4CAC-B472-58B425694E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D11020D-F699-4C4D-81D0-C10B6A3D9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0451BD9F-BCE4-4703-9B0B-505E5C1DFAAC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DF1BE1DF-87A5-44C6-8ED8-97BC2E1796C0}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CF51F0-E53C-4168-BA72-86B5E37E79C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7DE4CA-09AB-4709-A18C-34EAF38D8775}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29224-C3E9-4F2A-94E0-CDD86791D399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A1A524-98C3-4DFB-B5E9-5FA794FFACA7}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EB0D-84FC-4685-9C41-C1F13C79BE84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B681B882-4EFF-4D47-A6E0-B8E3C2350E2B}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D11020D-F699-4C4D-81D0-C10B6A3D9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DBE40B-147E-4BCA-89B9-6B91AE8E30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DF1BE1DF-87A5-44C6-8ED8-97BC2E1796C0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{41B73D3A-E58F-497D-98CF-A3AD30B5A633}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7DE4CA-09AB-4709-A18C-34EAF38D8775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3836A2E-1CEF-4375-8272-88D6A413BDED}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A1A524-98C3-4DFB-B5E9-5FA794FFACA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990DD513-5746-49B1-B7E3-6ADBC6FC97E4}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B681B882-4EFF-4D47-A6E0-B8E3C2350E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFFA90-480D-4324-8EEE-CF1DD6784503}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DBE40B-147E-4BCA-89B9-6B91AE8E30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1938113-370E-45DA-8254-28B5FF580D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{41B73D3A-E58F-497D-98CF-A3AD30B5A633}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3532A6C8-F2F7-42F5-B117-1E98CD122444}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3836A2E-1CEF-4375-8272-88D6A413BDED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3AD91E-6787-4511-9A79-7D508557ECFD}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990DD513-5746-49B1-B7E3-6ADBC6FC97E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549479AA-EE71-4649-831D-6309A734BD07}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFFA90-480D-4324-8EEE-CF1DD6784503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E4B3E-F3BA-4010-8237-1A255DD34E49}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1938113-370E-45DA-8254-28B5FF580D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{639CFA2F-492E-4A8F-AA23-C2194A33B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3532A6C8-F2F7-42F5-B117-1E98CD122444}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FB29FCA9-03EA-4E89-B4B2-B9D5A577342C}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3AD91E-6787-4511-9A79-7D508557ECFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030A67F-4CAD-4469-BE3D-B24FA5BF6733}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5568,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549479AA-EE71-4649-831D-6309A734BD07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E04E6-EDF3-4CD7-8CAD-FA0F12C73998}">
   <dimension ref="A2:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13765,7 +13765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E4B3E-F3BA-4010-8237-1A255DD34E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DE902-6E78-4DEF-B1EE-6666E13CBDB5}">
   <dimension ref="A2:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17DD8E9-37EB-44E1-B369-80FC650477D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D1FBA6-C7C2-417E-9F4C-B4395D702D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9F4312CD-9241-424C-8D9B-6F8242F08915}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{842F855B-A876-4E0E-8C1D-6382C066F098}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7238DA84-5EE8-46AC-8168-9189835A286F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9332041F-D314-404F-A9C2-D719F05A17E8}">
   <dimension ref="A2:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5673,7 +5673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4688D4C-FD33-4E17-9016-904A3DA429D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B0159-579D-43BC-92F7-7A924E542E18}">
   <dimension ref="A2:U148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13885,7 +13885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6712E-D81B-4661-8714-02AC2F6A4462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1388AE-0CA7-4F2A-A267-24EF39CFFF6E}">
   <dimension ref="A2:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC4F24B-2C30-4980-8D9B-5F8465D0449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EC0495-DFC5-442D-A063-9A55C91DAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CD432023-BB1E-4FFE-9D47-E397F9716FFE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9A6B8F53-1278-40A7-8D88-801DC3B65581}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF972F-26EC-494D-A401-911803626328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA89E33-5CE0-429F-BCA6-3F48BD5B43D0}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5716,7 +5716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2CFD9F-B7BD-49B7-9BA4-16C0C43B6642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B14D7-09E0-4EE8-9329-CF719EE571A0}">
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13956,7 +13956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14776895-F1C2-44C8-8500-C6D7E7C95A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825F853-011E-4BA7-AF66-5EF1029FCDA5}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EC0495-DFC5-442D-A063-9A55C91DAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD692DD-529E-4076-A473-431689FFE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9A6B8F53-1278-40A7-8D88-801DC3B65581}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8E01FA7E-A477-4708-AA18-F5F1210EE86F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -718,7 +718,7 @@
     <t>ep_wind_onshore_G100000925093</t>
   </si>
   <si>
-    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -2291,28 +2291,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="7"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -2388,12 +2388,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA89E33-5CE0-429F-BCA6-3F48BD5B43D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7E4C4D-5424-441D-B815-287045E5CFB4}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2736,15 +2736,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" customWidth="1"/>
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2777,7 +2775,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>715</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>715</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>715</v>
       </c>
@@ -2947,7 +2945,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>715</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>715</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>718</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>718</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>718</v>
       </c>
@@ -3157,7 +3155,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>718</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>718</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>719</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>719</v>
       </c>
@@ -3325,7 +3323,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>719</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>719</v>
       </c>
@@ -3409,7 +3407,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>719</v>
       </c>
@@ -3451,7 +3449,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>720</v>
       </c>
@@ -3493,7 +3491,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>720</v>
       </c>
@@ -3535,7 +3533,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>720</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>720</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>720</v>
       </c>
@@ -3661,7 +3659,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>721</v>
       </c>
@@ -3703,7 +3701,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>721</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>721</v>
       </c>
@@ -3787,7 +3785,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>722</v>
       </c>
@@ -3829,7 +3827,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>722</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>722</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>723</v>
       </c>
@@ -3936,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>723</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>723</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>724</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>724</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>724</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>725</v>
       </c>
@@ -4074,7 +4072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>725</v>
       </c>
@@ -4097,7 +4095,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>725</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>725</v>
       </c>
@@ -4143,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>725</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>726</v>
       </c>
@@ -4189,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>726</v>
       </c>
@@ -4212,7 +4210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>726</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>728</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>728</v>
       </c>
@@ -4281,7 +4279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>728</v>
       </c>
@@ -4304,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>729</v>
       </c>
@@ -4327,7 +4325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>729</v>
       </c>
@@ -4350,7 +4348,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>729</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>729</v>
       </c>
@@ -4396,7 +4394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>729</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>730</v>
       </c>
@@ -4442,7 +4440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>730</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>730</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>730</v>
       </c>
@@ -4511,7 +4509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>730</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>731</v>
       </c>
@@ -4557,7 +4555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>731</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>731</v>
       </c>
@@ -4603,7 +4601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>731</v>
       </c>
@@ -4626,7 +4624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>731</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>732</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>732</v>
       </c>
@@ -4695,7 +4693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>732</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>733</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>733</v>
       </c>
@@ -4764,7 +4762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>733</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>734</v>
       </c>
@@ -4810,7 +4808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>734</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>734</v>
       </c>
@@ -4856,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>734</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>734</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>736</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>736</v>
       </c>
@@ -4948,7 +4946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>736</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>738</v>
       </c>
@@ -4994,7 +4992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>738</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>738</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>739</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>739</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>739</v>
       </c>
@@ -5109,7 +5107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>739</v>
       </c>
@@ -5132,7 +5130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>739</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>740</v>
       </c>
@@ -5178,7 +5176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>740</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>740</v>
       </c>
@@ -5224,7 +5222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>740</v>
       </c>
@@ -5247,7 +5245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>740</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>741</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>741</v>
       </c>
@@ -5316,7 +5314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>741</v>
       </c>
@@ -5339,7 +5337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>742</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>742</v>
       </c>
@@ -5385,7 +5383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>742</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>743</v>
       </c>
@@ -5431,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>743</v>
       </c>
@@ -5454,7 +5452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>743</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>744</v>
       </c>
@@ -5500,7 +5498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>744</v>
       </c>
@@ -5523,7 +5521,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>744</v>
       </c>
@@ -5546,7 +5544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>744</v>
       </c>
@@ -5569,7 +5567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>744</v>
       </c>
@@ -5592,7 +5590,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>745</v>
       </c>
@@ -5615,7 +5613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>745</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>745</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>745</v>
       </c>
@@ -5684,7 +5682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>745</v>
       </c>
@@ -5716,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B14D7-09E0-4EE8-9329-CF719EE571A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFCA904-172B-44B6-B8FE-0E2E6DC1A009}">
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5724,17 +5722,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="30.59765625" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
     <col min="16" max="17" width="30.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5771,7 +5766,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5827,7 +5822,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>432</v>
       </c>
@@ -5883,7 +5878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>433</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>434</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>435</v>
       </c>
@@ -6051,7 +6046,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>436</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>437</v>
       </c>
@@ -6163,7 +6158,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>438</v>
       </c>
@@ -6219,7 +6214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>439</v>
       </c>
@@ -6275,7 +6270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>440</v>
       </c>
@@ -6331,7 +6326,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>441</v>
       </c>
@@ -6387,7 +6382,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>442</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>443</v>
       </c>
@@ -6499,7 +6494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>444</v>
       </c>
@@ -6555,7 +6550,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>445</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>446</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>447</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>448</v>
       </c>
@@ -6779,7 +6774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>449</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>450</v>
       </c>
@@ -6891,7 +6886,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>451</v>
       </c>
@@ -6947,7 +6942,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>452</v>
       </c>
@@ -7003,7 +6998,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>453</v>
       </c>
@@ -7059,7 +7054,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>454</v>
       </c>
@@ -7115,7 +7110,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>455</v>
       </c>
@@ -7171,7 +7166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>456</v>
       </c>
@@ -7227,7 +7222,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>457</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>458</v>
       </c>
@@ -7339,7 +7334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>459</v>
       </c>
@@ -7395,7 +7390,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>460</v>
       </c>
@@ -7451,7 +7446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>461</v>
       </c>
@@ -7507,7 +7502,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>462</v>
       </c>
@@ -7563,7 +7558,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>463</v>
       </c>
@@ -7619,7 +7614,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>464</v>
       </c>
@@ -7675,7 +7670,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>465</v>
       </c>
@@ -7731,7 +7726,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>466</v>
       </c>
@@ -7787,7 +7782,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>467</v>
       </c>
@@ -7843,7 +7838,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>468</v>
       </c>
@@ -7899,7 +7894,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>469</v>
       </c>
@@ -7955,7 +7950,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>470</v>
       </c>
@@ -8011,7 +8006,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>471</v>
       </c>
@@ -8067,7 +8062,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>472</v>
       </c>
@@ -8123,7 +8118,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>473</v>
       </c>
@@ -8179,7 +8174,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>474</v>
       </c>
@@ -8235,7 +8230,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>475</v>
       </c>
@@ -8291,7 +8286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>476</v>
       </c>
@@ -8347,7 +8342,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>477</v>
       </c>
@@ -8403,7 +8398,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>478</v>
       </c>
@@ -8459,7 +8454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>479</v>
       </c>
@@ -8515,7 +8510,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>480</v>
       </c>
@@ -8571,7 +8566,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>481</v>
       </c>
@@ -8627,7 +8622,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>482</v>
       </c>
@@ -8683,7 +8678,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>483</v>
       </c>
@@ -8739,7 +8734,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>484</v>
       </c>
@@ -8795,7 +8790,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>485</v>
       </c>
@@ -8851,7 +8846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>486</v>
       </c>
@@ -8907,7 +8902,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>487</v>
       </c>
@@ -8963,7 +8958,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>488</v>
       </c>
@@ -9019,7 +9014,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>489</v>
       </c>
@@ -9075,7 +9070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>490</v>
       </c>
@@ -9131,7 +9126,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>491</v>
       </c>
@@ -9187,7 +9182,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>492</v>
       </c>
@@ -9243,7 +9238,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>493</v>
       </c>
@@ -9299,7 +9294,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>494</v>
       </c>
@@ -9355,7 +9350,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>495</v>
       </c>
@@ -9411,7 +9406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>496</v>
       </c>
@@ -9467,7 +9462,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>497</v>
       </c>
@@ -9523,7 +9518,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>498</v>
       </c>
@@ -9579,7 +9574,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>499</v>
       </c>
@@ -9635,7 +9630,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>500</v>
       </c>
@@ -9691,7 +9686,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>501</v>
       </c>
@@ -9747,7 +9742,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>502</v>
       </c>
@@ -9803,7 +9798,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>503</v>
       </c>
@@ -9859,7 +9854,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>504</v>
       </c>
@@ -9915,7 +9910,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>505</v>
       </c>
@@ -9971,7 +9966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>506</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>507</v>
       </c>
@@ -10083,7 +10078,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>508</v>
       </c>
@@ -10139,7 +10134,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>509</v>
       </c>
@@ -10195,7 +10190,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>510</v>
       </c>
@@ -10251,7 +10246,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>511</v>
       </c>
@@ -10307,7 +10302,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>512</v>
       </c>
@@ -10363,7 +10358,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>513</v>
       </c>
@@ -10419,7 +10414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>514</v>
       </c>
@@ -10475,7 +10470,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>515</v>
       </c>
@@ -10531,7 +10526,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>516</v>
       </c>
@@ -10587,7 +10582,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>517</v>
       </c>
@@ -10643,7 +10638,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>518</v>
       </c>
@@ -10699,7 +10694,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>519</v>
       </c>
@@ -10755,7 +10750,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>520</v>
       </c>
@@ -10811,7 +10806,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>521</v>
       </c>
@@ -10867,7 +10862,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>522</v>
       </c>
@@ -10923,7 +10918,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>523</v>
       </c>
@@ -10979,7 +10974,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>524</v>
       </c>
@@ -11035,7 +11030,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>525</v>
       </c>
@@ -11091,7 +11086,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>526</v>
       </c>
@@ -11147,7 +11142,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>527</v>
       </c>
@@ -11203,7 +11198,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>528</v>
       </c>
@@ -11259,7 +11254,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>529</v>
       </c>
@@ -11315,7 +11310,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>530</v>
       </c>
@@ -11371,7 +11366,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>531</v>
       </c>
@@ -11427,7 +11422,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>532</v>
       </c>
@@ -11483,7 +11478,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>533</v>
       </c>
@@ -11539,7 +11534,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>534</v>
       </c>
@@ -11595,7 +11590,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>535</v>
       </c>
@@ -11651,7 +11646,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>536</v>
       </c>
@@ -11707,7 +11702,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>537</v>
       </c>
@@ -11763,7 +11758,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>538</v>
       </c>
@@ -11819,7 +11814,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>539</v>
       </c>
@@ -11875,7 +11870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>540</v>
       </c>
@@ -11931,7 +11926,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>541</v>
       </c>
@@ -11987,7 +11982,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>542</v>
       </c>
@@ -12043,7 +12038,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>543</v>
       </c>
@@ -12099,7 +12094,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>544</v>
       </c>
@@ -12155,7 +12150,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>545</v>
       </c>
@@ -12211,7 +12206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>546</v>
       </c>
@@ -12267,7 +12262,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>547</v>
       </c>
@@ -12323,7 +12318,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>548</v>
       </c>
@@ -12379,7 +12374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>549</v>
       </c>
@@ -12435,7 +12430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>550</v>
       </c>
@@ -12491,7 +12486,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>551</v>
       </c>
@@ -12547,7 +12542,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>552</v>
       </c>
@@ -12603,7 +12598,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>553</v>
       </c>
@@ -12659,7 +12654,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>554</v>
       </c>
@@ -12715,7 +12710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>555</v>
       </c>
@@ -12771,7 +12766,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>556</v>
       </c>
@@ -12827,7 +12822,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>557</v>
       </c>
@@ -12883,7 +12878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>558</v>
       </c>
@@ -12939,7 +12934,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>559</v>
       </c>
@@ -12995,7 +12990,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>560</v>
       </c>
@@ -13051,7 +13046,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>561</v>
       </c>
@@ -13107,7 +13102,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>562</v>
       </c>
@@ -13163,7 +13158,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>563</v>
       </c>
@@ -13219,7 +13214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>564</v>
       </c>
@@ -13275,7 +13270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>565</v>
       </c>
@@ -13331,7 +13326,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>566</v>
       </c>
@@ -13387,7 +13382,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>567</v>
       </c>
@@ -13443,7 +13438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>568</v>
       </c>
@@ -13499,7 +13494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>569</v>
       </c>
@@ -13555,7 +13550,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>570</v>
       </c>
@@ -13611,7 +13606,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>571</v>
       </c>
@@ -13667,7 +13662,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>572</v>
       </c>
@@ -13723,7 +13718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>573</v>
       </c>
@@ -13779,7 +13774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>574</v>
       </c>
@@ -13835,7 +13830,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>575</v>
       </c>
@@ -13891,7 +13886,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>576</v>
       </c>
@@ -13956,7 +13951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825F853-011E-4BA7-AF66-5EF1029FCDA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7245F9EC-8E88-4974-8CD1-824CBF5E8E70}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13964,17 +13959,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="2" max="10" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="10.59765625" customWidth="1"/>
     <col min="15" max="16" width="30.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14010,7 +14000,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14063,7 +14053,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -14116,7 +14106,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -14169,7 +14159,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -14222,7 +14212,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -14275,7 +14265,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -14328,7 +14318,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -14381,7 +14371,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -14434,7 +14424,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -14487,7 +14477,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -14540,7 +14530,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -14593,7 +14583,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -14646,7 +14636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -14699,7 +14689,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -14752,7 +14742,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -14805,7 +14795,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -14858,7 +14848,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -14911,7 +14901,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14954,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -15017,7 +15007,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -15070,7 +15060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -15123,7 +15113,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -15176,7 +15166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -15229,7 +15219,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -15282,7 +15272,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -15335,7 +15325,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -15388,7 +15378,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -15441,7 +15431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -15494,7 +15484,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
@@ -15547,7 +15537,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -15600,7 +15590,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -15653,7 +15643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -15706,7 +15696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
@@ -15759,7 +15749,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -15812,7 +15802,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -15865,7 +15855,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -15918,7 +15908,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
@@ -15971,7 +15961,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
@@ -16024,7 +16014,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -16077,7 +16067,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -16130,7 +16120,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>35</v>
       </c>
@@ -16183,7 +16173,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
@@ -16236,7 +16226,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
@@ -16289,7 +16279,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -16342,7 +16332,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -16395,7 +16385,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
@@ -16448,7 +16438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -16501,7 +16491,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
@@ -16554,7 +16544,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
@@ -16607,7 +16597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -16660,7 +16650,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
@@ -16713,7 +16703,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -16766,7 +16756,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>47</v>
       </c>
@@ -16819,7 +16809,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -16872,7 +16862,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
@@ -16925,7 +16915,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -16978,7 +16968,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -17031,7 +17021,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -17084,7 +17074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>53</v>
       </c>
@@ -17137,7 +17127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -17190,7 +17180,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>55</v>
       </c>
@@ -17243,7 +17233,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -17296,7 +17286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>57</v>
       </c>
@@ -17349,7 +17339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -17402,7 +17392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
@@ -17455,7 +17445,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>60</v>
       </c>
@@ -17508,7 +17498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -17561,7 +17551,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>62</v>
       </c>
@@ -17614,7 +17604,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
@@ -17667,7 +17657,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>64</v>
       </c>
@@ -17720,7 +17710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>65</v>
       </c>
@@ -17773,7 +17763,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
@@ -17826,7 +17816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>67</v>
       </c>
@@ -17879,7 +17869,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
@@ -17932,7 +17922,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>69</v>
       </c>
@@ -17985,7 +17975,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
@@ -18038,7 +18028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>71</v>
       </c>
@@ -18091,7 +18081,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>72</v>
       </c>
@@ -18144,7 +18134,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>73</v>
       </c>
@@ -18197,7 +18187,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>74</v>
       </c>
@@ -18250,7 +18240,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -18303,7 +18293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
@@ -18356,7 +18346,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>77</v>
       </c>
@@ -18409,7 +18399,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>78</v>
       </c>
@@ -18462,7 +18452,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>79</v>
       </c>
@@ -18515,7 +18505,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>80</v>
       </c>
@@ -18568,7 +18558,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>81</v>
       </c>
@@ -18621,7 +18611,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
@@ -18674,7 +18664,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>83</v>
       </c>
@@ -18727,7 +18717,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>84</v>
       </c>
@@ -18780,7 +18770,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>85</v>
       </c>
@@ -18833,7 +18823,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>86</v>
       </c>
@@ -18886,7 +18876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>87</v>
       </c>
@@ -18939,7 +18929,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>88</v>
       </c>
@@ -18992,7 +18982,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>89</v>
       </c>
@@ -19045,7 +19035,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>90</v>
       </c>
@@ -19098,7 +19088,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>91</v>
       </c>
@@ -19151,7 +19141,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>92</v>
       </c>
@@ -19204,7 +19194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>93</v>
       </c>
@@ -19257,7 +19247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>94</v>
       </c>
@@ -19310,7 +19300,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>95</v>
       </c>
@@ -19363,7 +19353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>96</v>
       </c>
@@ -19416,7 +19406,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>97</v>
       </c>
@@ -19469,7 +19459,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>98</v>
       </c>
@@ -19522,7 +19512,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>99</v>
       </c>
@@ -19575,7 +19565,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>100</v>
       </c>
@@ -19628,7 +19618,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>101</v>
       </c>
@@ -19681,7 +19671,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>102</v>
       </c>
@@ -19734,7 +19724,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>103</v>
       </c>
@@ -19787,7 +19777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>104</v>
       </c>
@@ -19840,7 +19830,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>105</v>
       </c>
@@ -19893,7 +19883,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>106</v>
       </c>
@@ -19946,7 +19936,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>107</v>
       </c>
@@ -19999,7 +19989,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>108</v>
       </c>
@@ -20052,7 +20042,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>109</v>
       </c>
@@ -20105,7 +20095,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>110</v>
       </c>
@@ -20158,7 +20148,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>111</v>
       </c>
@@ -20211,7 +20201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>112</v>
       </c>
@@ -20264,7 +20254,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>113</v>
       </c>
@@ -20317,7 +20307,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>114</v>
       </c>
@@ -20370,7 +20360,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>115</v>
       </c>
@@ -20423,7 +20413,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>116</v>
       </c>
@@ -20476,7 +20466,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>117</v>
       </c>
@@ -20529,7 +20519,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>118</v>
       </c>
@@ -20582,7 +20572,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>119</v>
       </c>
@@ -20635,7 +20625,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>120</v>
       </c>
@@ -20688,7 +20678,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>121</v>
       </c>
@@ -20741,7 +20731,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>122</v>
       </c>
@@ -20794,7 +20784,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>123</v>
       </c>
@@ -20847,7 +20837,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>124</v>
       </c>
@@ -20900,7 +20890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>125</v>
       </c>
@@ -20953,7 +20943,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>126</v>
       </c>
@@ -21006,7 +20996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>127</v>
       </c>
@@ -21059,7 +21049,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>128</v>
       </c>
@@ -21112,7 +21102,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>129</v>
       </c>
@@ -21165,7 +21155,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>130</v>
       </c>
@@ -21218,7 +21208,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>131</v>
       </c>
@@ -21271,7 +21261,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>131</v>
       </c>
@@ -21324,7 +21314,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>131</v>
       </c>
@@ -21377,7 +21367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>131</v>
       </c>
@@ -21430,7 +21420,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>131</v>
       </c>
@@ -21483,7 +21473,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>131</v>
       </c>
@@ -21536,7 +21526,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>131</v>
       </c>
@@ -21589,7 +21579,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>131</v>
       </c>
@@ -21642,7 +21632,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>132</v>
       </c>
@@ -21695,7 +21685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>133</v>
       </c>
@@ -21748,7 +21738,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>134</v>
       </c>
@@ -21801,7 +21791,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>135</v>
       </c>
@@ -21854,7 +21844,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>136</v>
       </c>
@@ -21907,7 +21897,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>137</v>
       </c>
@@ -21960,7 +21950,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>138</v>
       </c>
@@ -22013,7 +22003,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>139</v>
       </c>
@@ -22066,7 +22056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>140</v>
       </c>
@@ -22119,7 +22109,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>141</v>
       </c>
@@ -22172,7 +22162,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>142</v>
       </c>
@@ -22225,7 +22215,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>143</v>
       </c>
@@ -22278,7 +22268,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>144</v>
       </c>
@@ -22331,7 +22321,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>144</v>
       </c>
@@ -22384,7 +22374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
         <v>144</v>
       </c>
@@ -22437,7 +22427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>144</v>
       </c>
@@ -22490,7 +22480,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>144</v>
       </c>
@@ -22543,7 +22533,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>145</v>
       </c>
@@ -22596,7 +22586,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>146</v>
       </c>
@@ -22649,7 +22639,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>146</v>
       </c>
@@ -22702,7 +22692,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>146</v>
       </c>
@@ -22755,7 +22745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>146</v>
       </c>
@@ -22808,7 +22798,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>146</v>
       </c>
@@ -22861,7 +22851,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>146</v>
       </c>
@@ -22914,7 +22904,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>146</v>
       </c>
@@ -22967,7 +22957,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>147</v>
       </c>
@@ -23020,7 +23010,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>148</v>
       </c>
@@ -23073,7 +23063,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>149</v>
       </c>
@@ -23126,7 +23116,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>150</v>
       </c>
@@ -23179,7 +23169,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>151</v>
       </c>
@@ -23232,7 +23222,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>151</v>
       </c>
@@ -23285,7 +23275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>151</v>
       </c>
@@ -23338,7 +23328,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>151</v>
       </c>
@@ -23391,7 +23381,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>151</v>
       </c>
@@ -23444,7 +23434,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>151</v>
       </c>
@@ -23497,7 +23487,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>151</v>
       </c>
@@ -23550,7 +23540,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>151</v>
       </c>
@@ -23603,7 +23593,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>151</v>
       </c>
@@ -23656,7 +23646,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>151</v>
       </c>
@@ -23709,7 +23699,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>151</v>
       </c>
@@ -23762,7 +23752,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>151</v>
       </c>
@@ -23815,7 +23805,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>151</v>
       </c>
@@ -23868,7 +23858,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>151</v>
       </c>
@@ -23921,7 +23911,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>151</v>
       </c>
@@ -23974,7 +23964,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>151</v>
       </c>
@@ -24027,7 +24017,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>151</v>
       </c>
@@ -24080,7 +24070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>151</v>
       </c>
@@ -24133,7 +24123,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>153</v>
       </c>
@@ -24186,7 +24176,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>153</v>
       </c>
@@ -24239,7 +24229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>153</v>
       </c>
@@ -24292,7 +24282,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
         <v>153</v>
       </c>
@@ -24345,7 +24335,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>153</v>
       </c>
@@ -24398,7 +24388,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>153</v>
       </c>
@@ -24451,7 +24441,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>153</v>
       </c>
@@ -24504,7 +24494,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>153</v>
       </c>
@@ -24557,7 +24547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>153</v>
       </c>
@@ -24610,7 +24600,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>153</v>
       </c>
@@ -24663,7 +24653,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>153</v>
       </c>
@@ -24716,7 +24706,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>153</v>
       </c>
@@ -24769,7 +24759,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>153</v>
       </c>
@@ -24822,7 +24812,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>153</v>
       </c>
@@ -24875,7 +24865,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>153</v>
       </c>
@@ -24907,7 +24897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>153</v>
       </c>
@@ -24939,7 +24929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>153</v>
       </c>
@@ -24971,7 +24961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>153</v>
       </c>
@@ -25003,7 +24993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>153</v>
       </c>
@@ -25035,7 +25025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>153</v>
       </c>
@@ -25067,7 +25057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>153</v>
       </c>
@@ -25099,7 +25089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>153</v>
       </c>
@@ -25131,7 +25121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>153</v>
       </c>
@@ -25163,7 +25153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>153</v>
       </c>
@@ -25195,7 +25185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>155</v>
       </c>
@@ -25227,7 +25217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>156</v>
       </c>
@@ -25259,7 +25249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>157</v>
       </c>
@@ -25291,7 +25281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>158</v>
       </c>
@@ -25323,7 +25313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>159</v>
       </c>
@@ -25355,7 +25345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>160</v>
       </c>
@@ -25387,7 +25377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>161</v>
       </c>
@@ -25419,7 +25409,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>162</v>
       </c>
@@ -25451,7 +25441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>163</v>
       </c>
@@ -25483,7 +25473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>164</v>
       </c>
@@ -25515,7 +25505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>165</v>
       </c>
@@ -25547,7 +25537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>166</v>
       </c>
@@ -25579,7 +25569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>167</v>
       </c>
@@ -25611,7 +25601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
         <v>168</v>
       </c>
@@ -25643,7 +25633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>169</v>
       </c>
@@ -25675,7 +25665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>170</v>
       </c>
@@ -25707,7 +25697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>171</v>
       </c>
@@ -25739,7 +25729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>172</v>
       </c>
@@ -25771,7 +25761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>173</v>
       </c>
@@ -25803,7 +25793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>174</v>
       </c>
@@ -25835,7 +25825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>175</v>
       </c>
@@ -25867,7 +25857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>176</v>
       </c>
@@ -25899,7 +25889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>177</v>
       </c>
@@ -25931,7 +25921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>178</v>
       </c>
@@ -25963,7 +25953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>179</v>
       </c>
@@ -25995,7 +25985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>180</v>
       </c>
@@ -26027,7 +26017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>181</v>
       </c>
@@ -26059,7 +26049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>182</v>
       </c>
@@ -26091,7 +26081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>183</v>
       </c>
@@ -26123,7 +26113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>183</v>
       </c>
@@ -26155,7 +26145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>183</v>
       </c>
@@ -26187,7 +26177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>183</v>
       </c>
@@ -26219,7 +26209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>183</v>
       </c>
@@ -26251,7 +26241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>183</v>
       </c>
@@ -26283,7 +26273,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>183</v>
       </c>
@@ -26315,7 +26305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>183</v>
       </c>
@@ -26347,7 +26337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>183</v>
       </c>
@@ -26379,7 +26369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
         <v>183</v>
       </c>
@@ -26411,7 +26401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>183</v>
       </c>
@@ -26443,7 +26433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
         <v>183</v>
       </c>
@@ -26475,7 +26465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>183</v>
       </c>
@@ -26507,7 +26497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>183</v>
       </c>
@@ -26539,7 +26529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>183</v>
       </c>
@@ -26571,7 +26561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>183</v>
       </c>
@@ -26603,7 +26593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>184</v>
       </c>
@@ -26635,7 +26625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>185</v>
       </c>
@@ -26667,7 +26657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>186</v>
       </c>
@@ -26699,7 +26689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
         <v>187</v>
       </c>
@@ -26731,7 +26721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>188</v>
       </c>
@@ -26763,7 +26753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>189</v>
       </c>
@@ -26795,7 +26785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>190</v>
       </c>
@@ -26827,7 +26817,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
         <v>191</v>
       </c>
@@ -26859,7 +26849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>192</v>
       </c>
@@ -26891,7 +26881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>193</v>
       </c>
@@ -26923,7 +26913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>194</v>
       </c>
@@ -26955,7 +26945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
         <v>195</v>
       </c>
@@ -26987,7 +26977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>196</v>
       </c>
@@ -27019,7 +27009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
         <v>197</v>
       </c>
@@ -27051,7 +27041,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>198</v>
       </c>
@@ -27083,7 +27073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
         <v>199</v>
       </c>
@@ -27115,7 +27105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>200</v>
       </c>
@@ -27147,7 +27137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
         <v>200</v>
       </c>
@@ -27179,7 +27169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>200</v>
       </c>
@@ -27211,7 +27201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
         <v>202</v>
       </c>
@@ -27243,7 +27233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>203</v>
       </c>
@@ -27275,7 +27265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
         <v>204</v>
       </c>
@@ -27307,7 +27297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>204</v>
       </c>
@@ -27339,7 +27329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
         <v>204</v>
       </c>
@@ -27371,7 +27361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>204</v>
       </c>
@@ -27403,7 +27393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
         <v>205</v>
       </c>
@@ -27435,7 +27425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>206</v>
       </c>
@@ -27467,7 +27457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
         <v>207</v>
       </c>
@@ -27499,7 +27489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>208</v>
       </c>
@@ -27531,7 +27521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>209</v>
       </c>
@@ -27563,7 +27553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>210</v>
       </c>
@@ -27595,7 +27585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>211</v>
       </c>
@@ -27627,7 +27617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>212</v>
       </c>
@@ -27659,7 +27649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
         <v>212</v>
       </c>
@@ -27691,7 +27681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>212</v>
       </c>
@@ -27723,7 +27713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
         <v>212</v>
       </c>
@@ -27755,7 +27745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>212</v>
       </c>
@@ -27787,7 +27777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
         <v>212</v>
       </c>
@@ -27819,7 +27809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>212</v>
       </c>
@@ -27851,7 +27841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>212</v>
       </c>
@@ -27883,7 +27873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>212</v>
       </c>
@@ -27915,7 +27905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
         <v>212</v>
       </c>
@@ -27947,7 +27937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>212</v>
       </c>
@@ -27979,7 +27969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
         <v>212</v>
       </c>
@@ -28011,7 +28001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>212</v>
       </c>
@@ -28043,7 +28033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
         <v>212</v>
       </c>
@@ -28075,7 +28065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>212</v>
       </c>
@@ -28107,7 +28097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
         <v>212</v>
       </c>
@@ -28139,7 +28129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
         <v>215</v>
       </c>
@@ -28171,7 +28161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
         <v>216</v>
       </c>
@@ -28203,7 +28193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
         <v>217</v>
       </c>
@@ -28235,7 +28225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313" s="4" t="s">
         <v>218</v>
       </c>
@@ -28267,7 +28257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
         <v>218</v>
       </c>
@@ -28299,7 +28289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315" s="4" t="s">
         <v>218</v>
       </c>
@@ -28331,7 +28321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316" s="3" t="s">
         <v>218</v>
       </c>
@@ -28363,7 +28353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
         <v>219</v>
       </c>
@@ -28395,7 +28385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
         <v>222</v>
       </c>
@@ -28427,7 +28417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
         <v>222</v>
       </c>
@@ -28459,7 +28449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
         <v>222</v>
       </c>
@@ -28491,7 +28481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
         <v>222</v>
       </c>
@@ -28523,7 +28513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
         <v>222</v>
       </c>
@@ -28555,7 +28545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
         <v>222</v>
       </c>
@@ -28587,7 +28577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
         <v>222</v>
       </c>
@@ -28619,7 +28609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
         <v>222</v>
       </c>
@@ -28651,7 +28641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
         <v>222</v>
       </c>
@@ -28683,7 +28673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
         <v>222</v>
       </c>
@@ -28715,7 +28705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328" s="3" t="s">
         <v>222</v>
       </c>
@@ -28747,7 +28737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
         <v>222</v>
       </c>
@@ -28779,7 +28769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
         <v>222</v>
       </c>
@@ -28811,7 +28801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
         <v>222</v>
       </c>
@@ -28843,7 +28833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
         <v>222</v>
       </c>
@@ -28875,7 +28865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
         <v>222</v>
       </c>
@@ -28907,7 +28897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
         <v>222</v>
       </c>
@@ -28939,7 +28929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
         <v>222</v>
       </c>
@@ -28971,7 +28961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
         <v>222</v>
       </c>
@@ -29003,7 +28993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
         <v>222</v>
       </c>
@@ -29035,7 +29025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="3" t="s">
         <v>222</v>
       </c>
@@ -29067,7 +29057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
         <v>222</v>
       </c>
@@ -29099,7 +29089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="3" t="s">
         <v>222</v>
       </c>
@@ -29131,7 +29121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
         <v>222</v>
       </c>
@@ -29163,7 +29153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
         <v>222</v>
       </c>
@@ -29195,7 +29185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
         <v>222</v>
       </c>
@@ -29227,7 +29217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
         <v>222</v>
       </c>
@@ -29259,7 +29249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
         <v>222</v>
       </c>
@@ -29291,7 +29281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
         <v>222</v>
       </c>
@@ -29323,7 +29313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
         <v>222</v>
       </c>
@@ -29355,7 +29345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
         <v>223</v>
       </c>
@@ -29387,7 +29377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
         <v>224</v>
       </c>
@@ -29419,7 +29409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A350" s="3" t="s">
         <v>225</v>
       </c>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD692DD-529E-4076-A473-431689FFE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34B4C3F-F290-4727-808C-BAC99F0EEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8E01FA7E-A477-4708-AA18-F5F1210EE86F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{35DFF401-0032-4FBC-A5C9-AFB74BA723D9}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7E4C4D-5424-441D-B815-287045E5CFB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646D327C-82BB-4C89-96FB-43267D8D0A34}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5714,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFCA904-172B-44B6-B8FE-0E2E6DC1A009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C431A4A-77BA-491A-A2C2-72A0B487FE25}">
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13951,7 +13951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7245F9EC-8E88-4974-8CD1-824CBF5E8E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5A9D81-524A-46F5-A914-913E2A70FADA}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D95D492-BE30-46A2-8B84-46ED0631D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B956872D-8FCA-44D3-9390-E6D373D35129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9E778092-D6E4-4B4E-9323-1A20B7CD9BDB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C32C46F6-6405-4463-B7C4-6962FF65E05D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8606FD-D802-4C0E-B6FF-BAB214A17436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7902F868-3E33-4723-9A35-1A349D403340}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5714,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D39F61-A350-4031-A36D-7FCA7761C6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630B4E89-E93C-48D8-B1A5-AF7A4CD86C24}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15141,7 +15141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DC5D4-2D4C-4903-B870-3D568C378D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B9F967-1B34-428C-B1C5-7F01F002CA99}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B956872D-8FCA-44D3-9390-E6D373D35129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA49905C-1B4C-4561-8726-9555EB3EF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C32C46F6-6405-4463-B7C4-6962FF65E05D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6555C0F-52D9-4C47-A104-2B410A760F44}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2728,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7902F868-3E33-4723-9A35-1A349D403340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB698C-660F-4917-9946-FA979B40B3E3}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5714,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630B4E89-E93C-48D8-B1A5-AF7A4CD86C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18D9EC4-4AEF-44E3-80B0-DE162E236777}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15141,7 +15141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B9F967-1B34-428C-B1C5-7F01F002CA99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5D6871-C32A-4A3D-835B-959DBAC92622}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA49905C-1B4C-4561-8726-9555EB3EF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C26B5F6-D3AA-4A28-9A67-A10E03075EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F6555C0F-52D9-4C47-A104-2B410A760F44}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FDB8E380-9015-4AFF-A6A8-CF252BE123A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
-    <sheet name="ccs_retrofits" sheetId="2" r:id="rId2"/>
-    <sheet name="existing_stock" sheetId="1" r:id="rId3"/>
+    <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
+    <sheet name="existing_stock" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4827" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4241" uniqueCount="714">
   <si>
     <t>~fi_t</t>
   </si>
@@ -676,16 +675,13 @@
     <t>ep_oil_steam_turbine_G100000412796</t>
   </si>
   <si>
-    <t>ep_solar_pv</t>
+    <t>ep_solar_pv_</t>
   </si>
   <si>
     <t>solar</t>
   </si>
   <si>
-    <t>elc_sol-ITA</t>
-  </si>
-  <si>
-    <t>ep_solar_pv_</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>ep_solar_pv_G100000827005</t>
@@ -694,10 +690,13 @@
     <t>ep_solar_pv_G100001004931</t>
   </si>
   <si>
-    <t>ep_solar_thermal</t>
-  </si>
-  <si>
-    <t>ep_wind_offshore</t>
+    <t>ep_solar_pv_ITA</t>
+  </si>
+  <si>
+    <t>ep_solar_thermal_ITA</t>
+  </si>
+  <si>
+    <t>ep_wind_offshore_ITA</t>
   </si>
   <si>
     <t>wind</t>
@@ -706,9 +705,6 @@
     <t>elc_win-ITA</t>
   </si>
   <si>
-    <t>ep_wind_onshore</t>
-  </si>
-  <si>
     <t>ep_wind_onshore_</t>
   </si>
   <si>
@@ -718,7 +714,10 @@
     <t>ep_wind_onshore_G100000925093</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>ep_wind_onshore_ITA</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -1306,12 +1305,12 @@
     <t>San Filippo del Mela power station_1</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Tuscania solar farm_--</t>
   </si>
   <si>
@@ -2180,102 +2179,6 @@
   </si>
   <si>
     <t>ccs retrofit of -- San Filippo del Mela power station_1</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>ncap_af</t>
-  </si>
-  <si>
-    <t>ncap_iled</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>CCGT + CCS</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
-  </si>
-  <si>
-    <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Gas turbine</t>
-  </si>
-  <si>
-    <t>Geothermal plant</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>Hydropower - small-scale unit</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>IGCC + CCS</t>
-  </si>
-  <si>
-    <t>Marine power</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Nuclear large</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUBCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - ULTRASUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
   </si>
 </sst>
 </file>
@@ -2291,8 +2194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -2301,12 +2210,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -2388,12 +2291,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2410,6 +2313,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74ED26EF-55E1-ABC9-BF99-2A37B7B6456D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12369800" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF366F5E-224C-22D0-D6EF-89C04EDC1BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2728,2996 +2741,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB698C-660F-4917-9946-FA979B40B3E3}">
-  <dimension ref="A1:Q107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B9620-D1FB-458A-A116-3F36D3DE92CB}">
+  <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2050</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5750</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>175</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>600</v>
-      </c>
-      <c r="E11" s="4">
-        <v>575</v>
-      </c>
-      <c r="F11" s="4">
-        <v>575</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2350</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>85</v>
-      </c>
-      <c r="E17" s="4">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4">
-        <v>80</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3750</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3700</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3600</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>140</v>
-      </c>
-      <c r="E22" s="3">
-        <v>140</v>
-      </c>
-      <c r="F22" s="3">
-        <v>135</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4">
-        <v>75</v>
-      </c>
-      <c r="F29" s="4">
-        <v>60</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
-        <v>40</v>
-      </c>
-      <c r="E32" s="3">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3">
-        <v>40</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4350</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
-        <v>165</v>
-      </c>
-      <c r="E35" s="4">
-        <v>165</v>
-      </c>
-      <c r="F35" s="4">
-        <v>130</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5650</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4950</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3850</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>210</v>
-      </c>
-      <c r="E39" s="4">
-        <v>200</v>
-      </c>
-      <c r="F39" s="4">
-        <v>150</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4">
-        <v>50</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
-        <v>500</v>
-      </c>
-      <c r="E45" s="4">
-        <v>500</v>
-      </c>
-      <c r="F45" s="4">
-        <v>500</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2850</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2800</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2600</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
-        <v>55</v>
-      </c>
-      <c r="E50" s="3">
-        <v>55</v>
-      </c>
-      <c r="F50" s="3">
-        <v>50</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4">
-        <v>65</v>
-      </c>
-      <c r="E55" s="4">
-        <v>65</v>
-      </c>
-      <c r="F55" s="4">
-        <v>65</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="E59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>75</v>
-      </c>
-      <c r="F60" s="3">
-        <v>75</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4">
-        <v>4</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
-        <v>95</v>
-      </c>
-      <c r="E64" s="3">
-        <v>85</v>
-      </c>
-      <c r="F64" s="3">
-        <v>80</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
-        <v>5850</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
-        <v>205</v>
-      </c>
-      <c r="E67" s="4">
-        <v>200</v>
-      </c>
-      <c r="F67" s="4">
-        <v>180</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
-        <v>6950</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4">
-        <v>200</v>
-      </c>
-      <c r="E71" s="4">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>90</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="4">
-        <v>165</v>
-      </c>
-      <c r="E75" s="4">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4">
-        <v>160</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5100</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3">
-        <v>170</v>
-      </c>
-      <c r="E78" s="3">
-        <v>170</v>
-      </c>
-      <c r="F78" s="3">
-        <v>155</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="4">
-        <v>990</v>
-      </c>
-      <c r="E81" s="4">
-        <v>650</v>
-      </c>
-      <c r="F81" s="4">
-        <v>470</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3">
-        <v>14</v>
-      </c>
-      <c r="F82" s="3">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3">
-        <v>750</v>
-      </c>
-      <c r="E86" s="3">
-        <v>480</v>
-      </c>
-      <c r="F86" s="3">
-        <v>340</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="4">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4">
-        <v>10</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="4">
-        <v>45</v>
-      </c>
-      <c r="E91" s="4">
-        <v>45</v>
-      </c>
-      <c r="F91" s="4">
-        <v>45</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3">
-        <v>60</v>
-      </c>
-      <c r="E94" s="3">
-        <v>60</v>
-      </c>
-      <c r="F94" s="3">
-        <v>60</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="4">
-        <v>65</v>
-      </c>
-      <c r="E97" s="4">
-        <v>65</v>
-      </c>
-      <c r="F97" s="4">
-        <v>65</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3">
-        <v>3120</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2280</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1660</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>60</v>
-      </c>
-      <c r="E101" s="4">
-        <v>50</v>
-      </c>
-      <c r="F101" s="4">
-        <v>40</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1630</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1550</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1490</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="3">
-        <v>42</v>
-      </c>
-      <c r="E106" s="3">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>38</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18D9EC4-4AEF-44E3-80B0-DE162E236777}">
-  <dimension ref="A1:U182"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5733,7 +2760,7 @@
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
@@ -5755,8 +2782,6 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -15134,14 +12159,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5D6871-C32A-4A3D-835B-959DBAC92622}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C9FD1-0D43-4334-9CDB-935FEE3F02A8}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15158,7 +12184,7 @@
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
@@ -15179,8 +12205,6 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -25563,7 +22587,7 @@
         <v>212</v>
       </c>
       <c r="P198" s="3" t="s">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="Q198" s="3" t="s">
         <v>236</v>
@@ -25572,7 +22596,7 @@
         <v>237</v>
       </c>
       <c r="S198" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T198" s="3" t="s">
         <v>239</v>
@@ -25616,19 +22640,19 @@
         <v>215</v>
       </c>
       <c r="P199" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R199" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S199" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="Q199" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R199" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="S199" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="T199" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.45">
@@ -25669,7 +22693,7 @@
         <v>216</v>
       </c>
       <c r="P200" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q200" s="3" t="s">
         <v>236</v>
@@ -25678,7 +22702,7 @@
         <v>237</v>
       </c>
       <c r="S200" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>243</v>
@@ -25722,7 +22746,7 @@
         <v>217</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="Q201" s="4" t="s">
         <v>236</v>
@@ -25731,10 +22755,10 @@
         <v>237</v>
       </c>
       <c r="S201" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T201" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.45">
@@ -25784,7 +22808,7 @@
         <v>237</v>
       </c>
       <c r="S202" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>239</v>
@@ -25837,7 +22861,7 @@
         <v>237</v>
       </c>
       <c r="S203" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T203" s="4" t="s">
         <v>239</v>
@@ -25881,7 +22905,7 @@
         <v>222</v>
       </c>
       <c r="P204" s="3" t="s">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="Q204" s="3" t="s">
         <v>236</v>
@@ -25890,7 +22914,7 @@
         <v>237</v>
       </c>
       <c r="S204" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>239</v>
@@ -25934,7 +22958,7 @@
         <v>223</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q205" s="4" t="s">
         <v>236</v>
@@ -25943,10 +22967,10 @@
         <v>237</v>
       </c>
       <c r="S205" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T205" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.45">
@@ -25987,7 +23011,7 @@
         <v>224</v>
       </c>
       <c r="P206" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q206" s="3" t="s">
         <v>236</v>
@@ -25996,7 +23020,7 @@
         <v>237</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>243</v>
@@ -26040,7 +23064,7 @@
         <v>225</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>428</v>
+        <v>235</v>
       </c>
       <c r="Q207" s="4" t="s">
         <v>236</v>
@@ -26049,10 +23073,10 @@
         <v>237</v>
       </c>
       <c r="S207" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T207" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.45">
@@ -28818,30 +25842,30 @@
         <v>214</v>
       </c>
       <c r="D294" s="3">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E294" s="3">
-        <v>5.9299999999999999E-2</v>
+        <v>19.880468</v>
       </c>
       <c r="F294" s="3">
         <v>1</v>
       </c>
       <c r="G294" s="3">
-        <v>1336.5</v>
+        <v>990.00000000000011</v>
       </c>
       <c r="H294" s="3">
-        <v>21.450000000000006</v>
+        <v>16.5</v>
       </c>
       <c r="I294" s="3">
         <v>0</v>
       </c>
       <c r="J294" s="3">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>213</v>
@@ -28850,30 +25874,30 @@
         <v>214</v>
       </c>
       <c r="D295" s="4">
-        <v>2010</v>
+        <v>2028</v>
       </c>
       <c r="E295" s="4">
-        <v>0.15930000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="F295" s="4">
         <v>1</v>
       </c>
       <c r="G295" s="4">
-        <v>1249.4943502824856</v>
+        <v>1138.5</v>
       </c>
       <c r="H295" s="4">
-        <v>19.999905838041428</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I295" s="4">
         <v>0</v>
       </c>
       <c r="J295" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>213</v>
@@ -28882,30 +25906,30 @@
         <v>214</v>
       </c>
       <c r="D296" s="3">
-        <v>2011</v>
+        <v>2025</v>
       </c>
       <c r="E296" s="3">
-        <v>0.36079999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="F296" s="3">
         <v>1</v>
       </c>
       <c r="G296" s="3">
-        <v>1336.4999999999998</v>
+        <v>1138.5</v>
       </c>
       <c r="H296" s="3">
-        <v>21.450000000000006</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I296" s="3">
         <v>0</v>
       </c>
       <c r="J296" s="3">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>213</v>
@@ -28914,10 +25938,10 @@
         <v>214</v>
       </c>
       <c r="D297" s="4">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E297" s="4">
-        <v>5.9499999999999997E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="F297" s="4">
         <v>1</v>
@@ -28926,18 +25950,18 @@
         <v>1336.5</v>
       </c>
       <c r="H297" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I297" s="4">
         <v>0</v>
       </c>
       <c r="J297" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>213</v>
@@ -28946,30 +25970,30 @@
         <v>214</v>
       </c>
       <c r="D298" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E298" s="3">
-        <v>5.4099999999999995E-2</v>
+        <v>0.15930000000000002</v>
       </c>
       <c r="F298" s="3">
         <v>1</v>
       </c>
       <c r="G298" s="3">
-        <v>1336.5</v>
+        <v>1249.4943502824856</v>
       </c>
       <c r="H298" s="3">
-        <v>21.450000000000006</v>
+        <v>19.999905838041428</v>
       </c>
       <c r="I298" s="3">
         <v>0</v>
       </c>
       <c r="J298" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>213</v>
@@ -28978,30 +26002,30 @@
         <v>214</v>
       </c>
       <c r="D299" s="4">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E299" s="4">
-        <v>3.6326999999999985</v>
+        <v>0.36079999999999995</v>
       </c>
       <c r="F299" s="4">
         <v>1</v>
       </c>
       <c r="G299" s="4">
-        <v>1332.9026756957649</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H299" s="4">
-        <v>21.3900445949294</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I299" s="4">
         <v>0</v>
       </c>
       <c r="J299" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>213</v>
@@ -29010,10 +26034,10 @@
         <v>214</v>
       </c>
       <c r="D300" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E300" s="3">
-        <v>0.01</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="F300" s="3">
         <v>1</v>
@@ -29028,12 +26052,12 @@
         <v>0</v>
       </c>
       <c r="J300" s="3">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>213</v>
@@ -29042,10 +26066,10 @@
         <v>214</v>
       </c>
       <c r="D301" s="4">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E301" s="4">
-        <v>2.5999999999999999E-2</v>
+        <v>5.4099999999999995E-2</v>
       </c>
       <c r="F301" s="4">
         <v>1</v>
@@ -29054,18 +26078,18 @@
         <v>1336.5</v>
       </c>
       <c r="H301" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I301" s="4">
         <v>0</v>
       </c>
       <c r="J301" s="4">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>213</v>
@@ -29074,30 +26098,30 @@
         <v>214</v>
       </c>
       <c r="D302" s="3">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E302" s="3">
-        <v>0.27400000000000002</v>
+        <v>3.6326999999999985</v>
       </c>
       <c r="F302" s="3">
         <v>1</v>
       </c>
       <c r="G302" s="3">
-        <v>1189.8065693430658</v>
+        <v>1332.9026756957649</v>
       </c>
       <c r="H302" s="3">
-        <v>19.005109489051097</v>
+        <v>21.3900445949294</v>
       </c>
       <c r="I302" s="3">
         <v>0</v>
       </c>
       <c r="J302" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>213</v>
@@ -29106,10 +26130,10 @@
         <v>214</v>
       </c>
       <c r="D303" s="4">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E303" s="4">
-        <v>1.9E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F303" s="4">
         <v>1</v>
@@ -29124,12 +26148,12 @@
         <v>0</v>
       </c>
       <c r="J303" s="4">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>213</v>
@@ -29138,10 +26162,10 @@
         <v>214</v>
       </c>
       <c r="D304" s="3">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E304" s="3">
-        <v>1.4799999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F304" s="3">
         <v>1</v>
@@ -29156,12 +26180,12 @@
         <v>0</v>
       </c>
       <c r="J304" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>213</v>
@@ -29170,30 +26194,30 @@
         <v>214</v>
       </c>
       <c r="D305" s="4">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E305" s="4">
-        <v>0.128</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F305" s="4">
         <v>1</v>
       </c>
       <c r="G305" s="4">
-        <v>1228.21875</v>
+        <v>1189.8065693430658</v>
       </c>
       <c r="H305" s="4">
-        <v>19.645312500000003</v>
+        <v>19.005109489051097</v>
       </c>
       <c r="I305" s="4">
         <v>0</v>
       </c>
       <c r="J305" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>213</v>
@@ -29202,30 +26226,30 @@
         <v>214</v>
       </c>
       <c r="D306" s="3">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E306" s="3">
-        <v>0.27350000000000002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F306" s="3">
         <v>1</v>
       </c>
       <c r="G306" s="3">
-        <v>1197.863802559415</v>
+        <v>1336.5</v>
       </c>
       <c r="H306" s="3">
-        <v>19.139396709323584</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I306" s="3">
         <v>0</v>
       </c>
       <c r="J306" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>213</v>
@@ -29234,30 +26258,30 @@
         <v>214</v>
       </c>
       <c r="D307" s="4">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E307" s="4">
-        <v>0.17599999999999999</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="F307" s="4">
         <v>1</v>
       </c>
       <c r="G307" s="4">
-        <v>1209.375</v>
+        <v>1336.5</v>
       </c>
       <c r="H307" s="4">
-        <v>19.331250000000001</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I307" s="4">
         <v>0</v>
       </c>
       <c r="J307" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>213</v>
@@ -29266,30 +26290,30 @@
         <v>214</v>
       </c>
       <c r="D308" s="3">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="E308" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>0.128</v>
       </c>
       <c r="F308" s="3">
         <v>1</v>
       </c>
       <c r="G308" s="3">
-        <v>1336.5</v>
+        <v>1228.21875</v>
       </c>
       <c r="H308" s="3">
-        <v>21.450000000000003</v>
+        <v>19.645312500000003</v>
       </c>
       <c r="I308" s="3">
         <v>0</v>
       </c>
       <c r="J308" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>213</v>
@@ -29298,30 +26322,30 @@
         <v>214</v>
       </c>
       <c r="D309" s="4">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="E309" s="4">
-        <v>0.2001</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="F309" s="4">
         <v>1</v>
       </c>
       <c r="G309" s="4">
-        <v>1244.3770614692653</v>
+        <v>1197.863802559415</v>
       </c>
       <c r="H309" s="4">
-        <v>19.914617691154426</v>
+        <v>19.139396709323584</v>
       </c>
       <c r="I309" s="4">
         <v>0</v>
       </c>
       <c r="J309" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>213</v>
@@ -29330,30 +26354,30 @@
         <v>214</v>
       </c>
       <c r="D310" s="3">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E310" s="3">
-        <v>19.880468</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F310" s="3">
         <v>1</v>
       </c>
       <c r="G310" s="3">
-        <v>990.00000000000011</v>
+        <v>1209.375</v>
       </c>
       <c r="H310" s="3">
-        <v>16.5</v>
+        <v>19.331250000000001</v>
       </c>
       <c r="I310" s="3">
         <v>0</v>
       </c>
       <c r="J310" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>213</v>
@@ -29362,19 +26386,19 @@
         <v>214</v>
       </c>
       <c r="D311" s="4">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E311" s="4">
-        <v>0.15</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F311" s="4">
         <v>1</v>
       </c>
       <c r="G311" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H311" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I311" s="4">
         <v>0</v>
@@ -29394,19 +26418,19 @@
         <v>214</v>
       </c>
       <c r="D312" s="3">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="E312" s="3">
-        <v>0.17</v>
+        <v>0.2001</v>
       </c>
       <c r="F312" s="3">
         <v>1</v>
       </c>
       <c r="G312" s="3">
-        <v>1138.5</v>
+        <v>1244.3770614692653</v>
       </c>
       <c r="H312" s="3">
-        <v>18.150000000000002</v>
+        <v>19.914617691154426</v>
       </c>
       <c r="I312" s="3">
         <v>0</v>
@@ -29586,30 +26610,30 @@
         <v>221</v>
       </c>
       <c r="D318" s="3">
-        <v>1996</v>
+        <v>2022</v>
       </c>
       <c r="E318" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>2.0221080000000011</v>
       </c>
       <c r="F318" s="3">
         <v>1</v>
       </c>
       <c r="G318" s="3">
-        <v>2376</v>
+        <v>1760.0000000000002</v>
       </c>
       <c r="H318" s="3">
-        <v>57.2</v>
+        <v>44</v>
       </c>
       <c r="I318" s="3">
-        <v>2.52</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J318" s="3">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>220</v>
@@ -29618,30 +26642,30 @@
         <v>221</v>
       </c>
       <c r="D319" s="4">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E319" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F319" s="4">
         <v>1</v>
       </c>
       <c r="G319" s="4">
-        <v>2376</v>
+        <v>2024</v>
       </c>
       <c r="H319" s="4">
-        <v>57.2</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I319" s="4">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J319" s="4">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>220</v>
@@ -29650,30 +26674,30 @@
         <v>221</v>
       </c>
       <c r="D320" s="3">
-        <v>1998</v>
+        <v>2024</v>
       </c>
       <c r="E320" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F320" s="3">
         <v>1</v>
       </c>
       <c r="G320" s="3">
-        <v>2376</v>
+        <v>2024</v>
       </c>
       <c r="H320" s="3">
-        <v>57.199999999999996</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="I320" s="3">
-        <v>2.5199999999999996</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J320" s="3">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>220</v>
@@ -29682,10 +26706,10 @@
         <v>221</v>
       </c>
       <c r="D321" s="4">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E321" s="4">
-        <v>3.3000000000000002E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F321" s="4">
         <v>1</v>
@@ -29700,12 +26724,12 @@
         <v>2.52</v>
       </c>
       <c r="J321" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>220</v>
@@ -29714,10 +26738,10 @@
         <v>221</v>
       </c>
       <c r="D322" s="3">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E322" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F322" s="3">
         <v>1</v>
@@ -29726,18 +26750,18 @@
         <v>2376</v>
       </c>
       <c r="H322" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I322" s="3">
-        <v>2.5199999999999996</v>
+        <v>2.52</v>
       </c>
       <c r="J322" s="3">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>220</v>
@@ -29746,10 +26770,10 @@
         <v>221</v>
       </c>
       <c r="D323" s="4">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E323" s="4">
-        <v>9.4E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F323" s="4">
         <v>1</v>
@@ -29758,18 +26782,18 @@
         <v>2376</v>
       </c>
       <c r="H323" s="4">
-        <v>57.20000000000001</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I323" s="4">
-        <v>2.52</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J323" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>220</v>
@@ -29778,10 +26802,10 @@
         <v>221</v>
       </c>
       <c r="D324" s="3">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E324" s="3">
-        <v>9.7799999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F324" s="3">
         <v>1</v>
@@ -29790,18 +26814,18 @@
         <v>2376</v>
       </c>
       <c r="H324" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I324" s="3">
-        <v>2.5200000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J324" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>220</v>
@@ -29810,10 +26834,10 @@
         <v>221</v>
       </c>
       <c r="D325" s="4">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E325" s="4">
-        <v>3.3000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F325" s="4">
         <v>1</v>
@@ -29822,18 +26846,18 @@
         <v>2376</v>
       </c>
       <c r="H325" s="4">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I325" s="4">
-        <v>2.52</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J325" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>220</v>
@@ -29842,10 +26866,10 @@
         <v>221</v>
       </c>
       <c r="D326" s="3">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E326" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F326" s="3">
         <v>1</v>
@@ -29854,18 +26878,18 @@
         <v>2376</v>
       </c>
       <c r="H326" s="3">
-        <v>57.199999999999996</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I326" s="3">
         <v>2.52</v>
       </c>
       <c r="J326" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>220</v>
@@ -29874,30 +26898,30 @@
         <v>221</v>
       </c>
       <c r="D327" s="4">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E327" s="4">
-        <v>0.40100000000000002</v>
+        <v>9.7799999999999998E-2</v>
       </c>
       <c r="F327" s="4">
         <v>1</v>
       </c>
       <c r="G327" s="4">
-        <v>2182.8827930174562</v>
+        <v>2376</v>
       </c>
       <c r="H327" s="4">
-        <v>52.372069825436419</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I327" s="4">
-        <v>2.4047880299251871</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="J327" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>220</v>
@@ -29906,10 +26930,10 @@
         <v>221</v>
       </c>
       <c r="D328" s="3">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E328" s="3">
-        <v>0.14299999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F328" s="3">
         <v>1</v>
@@ -29924,12 +26948,12 @@
         <v>2.52</v>
       </c>
       <c r="J328" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>220</v>
@@ -29938,30 +26962,30 @@
         <v>221</v>
       </c>
       <c r="D329" s="4">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E329" s="4">
-        <v>0.63300000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F329" s="4">
         <v>1</v>
       </c>
       <c r="G329" s="4">
-        <v>2295.9241706161138</v>
+        <v>2376</v>
       </c>
       <c r="H329" s="4">
-        <v>55.198104265402847</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I329" s="4">
-        <v>2.4722274881516588</v>
+        <v>2.52</v>
       </c>
       <c r="J329" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>220</v>
@@ -29970,30 +26994,30 @@
         <v>221</v>
       </c>
       <c r="D330" s="3">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E330" s="3">
-        <v>0.71699999999999997</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F330" s="3">
         <v>1</v>
       </c>
       <c r="G330" s="3">
-        <v>2218.9009762900978</v>
+        <v>2182.8827930174562</v>
       </c>
       <c r="H330" s="3">
-        <v>53.27252440725244</v>
+        <v>52.372069825436419</v>
       </c>
       <c r="I330" s="3">
-        <v>2.4262761506276154</v>
+        <v>2.4047880299251871</v>
       </c>
       <c r="J330" s="3">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>220</v>
@@ -30002,30 +27026,30 @@
         <v>221</v>
       </c>
       <c r="D331" s="4">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E331" s="4">
-        <v>0.77700000000000002</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F331" s="4">
         <v>1</v>
       </c>
       <c r="G331" s="4">
-        <v>2260.4787644787643</v>
+        <v>2376</v>
       </c>
       <c r="H331" s="4">
-        <v>54.311969111969113</v>
+        <v>57.2</v>
       </c>
       <c r="I331" s="4">
-        <v>2.4510810810810817</v>
+        <v>2.52</v>
       </c>
       <c r="J331" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>220</v>
@@ -30034,30 +27058,30 @@
         <v>221</v>
       </c>
       <c r="D332" s="3">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E332" s="3">
-        <v>0.64600000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F332" s="3">
         <v>1</v>
       </c>
       <c r="G332" s="3">
-        <v>2250.1300309597523</v>
+        <v>2295.9241706161138</v>
       </c>
       <c r="H332" s="3">
-        <v>54.05325077399381</v>
+        <v>55.198104265402847</v>
       </c>
       <c r="I332" s="3">
-        <v>2.4449071207430344</v>
+        <v>2.4722274881516588</v>
       </c>
       <c r="J332" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>220</v>
@@ -30066,30 +27090,30 @@
         <v>221</v>
       </c>
       <c r="D333" s="4">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E333" s="4">
-        <v>0.95</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
       </c>
       <c r="G333" s="4">
-        <v>2158.1305263157897</v>
+        <v>2218.9009762900978</v>
       </c>
       <c r="H333" s="4">
-        <v>51.753263157894736</v>
+        <v>53.27252440725244</v>
       </c>
       <c r="I333" s="4">
-        <v>2.3900210526315795</v>
+        <v>2.4262761506276154</v>
       </c>
       <c r="J333" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>220</v>
@@ -30098,30 +27122,30 @@
         <v>221</v>
       </c>
       <c r="D334" s="3">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E334" s="3">
-        <v>0.69699999999999995</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="F334" s="3">
         <v>1</v>
       </c>
       <c r="G334" s="3">
-        <v>2314.8923959827835</v>
+        <v>2260.4787644787643</v>
       </c>
       <c r="H334" s="3">
-        <v>55.672309899569584</v>
+        <v>54.311969111969113</v>
       </c>
       <c r="I334" s="3">
-        <v>2.4835437589670013</v>
+        <v>2.4510810810810817</v>
       </c>
       <c r="J334" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>220</v>
@@ -30130,30 +27154,30 @@
         <v>221</v>
       </c>
       <c r="D335" s="4">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E335" s="4">
-        <v>0.26300000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F335" s="4">
         <v>1</v>
       </c>
       <c r="G335" s="4">
-        <v>2204.6844106463877</v>
+        <v>2250.1300309597523</v>
       </c>
       <c r="H335" s="4">
-        <v>52.917110266159696</v>
+        <v>54.05325077399381</v>
       </c>
       <c r="I335" s="4">
-        <v>2.4177946768060843</v>
+        <v>2.4449071207430344</v>
       </c>
       <c r="J335" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>220</v>
@@ -30162,30 +27186,30 @@
         <v>221</v>
       </c>
       <c r="D336" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E336" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>0.95</v>
       </c>
       <c r="F336" s="3">
         <v>1</v>
       </c>
       <c r="G336" s="3">
-        <v>2376</v>
+        <v>2158.1305263157897</v>
       </c>
       <c r="H336" s="3">
-        <v>57.2</v>
+        <v>51.753263157894736</v>
       </c>
       <c r="I336" s="3">
-        <v>2.52</v>
+        <v>2.3900210526315795</v>
       </c>
       <c r="J336" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>220</v>
@@ -30194,30 +27218,30 @@
         <v>221</v>
       </c>
       <c r="D337" s="4">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E337" s="4">
-        <v>2.4205999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="F337" s="4">
         <v>1</v>
       </c>
       <c r="G337" s="4">
-        <v>2335.8644964058499</v>
+        <v>2314.8923959827835</v>
       </c>
       <c r="H337" s="4">
-        <v>56.196612410146251</v>
+        <v>55.672309899569584</v>
       </c>
       <c r="I337" s="4">
-        <v>2.4960555234239439</v>
+        <v>2.4835437589670013</v>
       </c>
       <c r="J337" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>220</v>
@@ -30226,30 +27250,30 @@
         <v>221</v>
       </c>
       <c r="D338" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E338" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F338" s="3">
         <v>1</v>
       </c>
       <c r="G338" s="3">
-        <v>2376</v>
+        <v>2204.6844106463877</v>
       </c>
       <c r="H338" s="3">
-        <v>57.20000000000001</v>
+        <v>52.917110266159696</v>
       </c>
       <c r="I338" s="3">
-        <v>2.5199999999999996</v>
+        <v>2.4177946768060843</v>
       </c>
       <c r="J338" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>220</v>
@@ -30258,30 +27282,30 @@
         <v>221</v>
       </c>
       <c r="D339" s="4">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E339" s="4">
-        <v>0.20899999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F339" s="4">
         <v>1</v>
       </c>
       <c r="G339" s="4">
-        <v>2184</v>
+        <v>2376</v>
       </c>
       <c r="H339" s="4">
-        <v>52.4</v>
+        <v>57.2</v>
       </c>
       <c r="I339" s="4">
-        <v>2.4054545454545457</v>
+        <v>2.52</v>
       </c>
       <c r="J339" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>220</v>
@@ -30290,30 +27314,30 @@
         <v>221</v>
       </c>
       <c r="D340" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E340" s="3">
-        <v>0.218</v>
+        <v>2.4205999999999999</v>
       </c>
       <c r="F340" s="3">
         <v>1</v>
       </c>
       <c r="G340" s="3">
-        <v>2376</v>
+        <v>2335.8644964058499</v>
       </c>
       <c r="H340" s="3">
-        <v>57.20000000000001</v>
+        <v>56.196612410146251</v>
       </c>
       <c r="I340" s="3">
-        <v>2.52</v>
+        <v>2.4960555234239439</v>
       </c>
       <c r="J340" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>220</v>
@@ -30322,30 +27346,30 @@
         <v>221</v>
       </c>
       <c r="D341" s="4">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E341" s="4">
-        <v>0.51600000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F341" s="4">
         <v>1</v>
       </c>
       <c r="G341" s="4">
-        <v>2301.6434108527133</v>
+        <v>2376</v>
       </c>
       <c r="H341" s="4">
-        <v>55.34108527131783</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I341" s="4">
-        <v>2.475639534883721</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J341" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>220</v>
@@ -30354,30 +27378,30 @@
         <v>221</v>
       </c>
       <c r="D342" s="3">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E342" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F342" s="3">
         <v>1</v>
       </c>
       <c r="G342" s="3">
-        <v>2376</v>
+        <v>2184</v>
       </c>
       <c r="H342" s="3">
-        <v>57.2</v>
+        <v>52.4</v>
       </c>
       <c r="I342" s="3">
-        <v>2.52</v>
+        <v>2.4054545454545457</v>
       </c>
       <c r="J342" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>220</v>
@@ -30386,30 +27410,30 @@
         <v>221</v>
       </c>
       <c r="D343" s="4">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E343" s="4">
-        <v>0.317</v>
+        <v>0.218</v>
       </c>
       <c r="F343" s="4">
         <v>1</v>
       </c>
       <c r="G343" s="4">
-        <v>2241.640378548896</v>
+        <v>2376</v>
       </c>
       <c r="H343" s="4">
-        <v>53.841009463722408</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I343" s="4">
-        <v>2.4398422712933754</v>
+        <v>2.52</v>
       </c>
       <c r="J343" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>220</v>
@@ -30418,30 +27442,30 @@
         <v>221</v>
       </c>
       <c r="D344" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E344" s="3">
-        <v>0.14360000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F344" s="3">
         <v>1</v>
       </c>
       <c r="G344" s="3">
-        <v>2376</v>
+        <v>2301.6434108527133</v>
       </c>
       <c r="H344" s="3">
-        <v>57.2</v>
+        <v>55.34108527131783</v>
       </c>
       <c r="I344" s="3">
-        <v>2.52</v>
+        <v>2.475639534883721</v>
       </c>
       <c r="J344" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>220</v>
@@ -30450,30 +27474,30 @@
         <v>221</v>
       </c>
       <c r="D345" s="4">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E345" s="4">
-        <v>0.155</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F345" s="4">
         <v>1</v>
       </c>
       <c r="G345" s="4">
-        <v>2185.2387096774191</v>
+        <v>2376</v>
       </c>
       <c r="H345" s="4">
-        <v>52.43096774193549</v>
+        <v>57.2</v>
       </c>
       <c r="I345" s="4">
-        <v>2.4061935483870971</v>
+        <v>2.52</v>
       </c>
       <c r="J345" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>220</v>
@@ -30482,30 +27506,30 @@
         <v>221</v>
       </c>
       <c r="D346" s="3">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E346" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>0.317</v>
       </c>
       <c r="F346" s="3">
         <v>1</v>
       </c>
       <c r="G346" s="3">
-        <v>2024</v>
+        <v>2241.640378548896</v>
       </c>
       <c r="H346" s="3">
-        <v>48.400000000000006</v>
+        <v>53.841009463722408</v>
       </c>
       <c r="I346" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.4398422712933754</v>
       </c>
       <c r="J346" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>220</v>
@@ -30514,10 +27538,10 @@
         <v>221</v>
       </c>
       <c r="D347" s="4">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="E347" s="4">
-        <v>1.32E-2</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="F347" s="4">
         <v>1</v>
@@ -30532,12 +27556,12 @@
         <v>2.52</v>
       </c>
       <c r="J347" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>220</v>
@@ -30546,30 +27570,30 @@
         <v>221</v>
       </c>
       <c r="D348" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E348" s="3">
-        <v>2.0221080000000011</v>
+        <v>0.155</v>
       </c>
       <c r="F348" s="3">
         <v>1</v>
       </c>
       <c r="G348" s="3">
-        <v>1760.0000000000002</v>
+        <v>2185.2387096774191</v>
       </c>
       <c r="H348" s="3">
-        <v>44</v>
+        <v>52.43096774193549</v>
       </c>
       <c r="I348" s="3">
-        <v>2.0999999999999996</v>
+        <v>2.4061935483870971</v>
       </c>
       <c r="J348" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>220</v>
@@ -30578,10 +27602,10 @@
         <v>221</v>
       </c>
       <c r="D349" s="4">
-        <v>2011</v>
+        <v>2025</v>
       </c>
       <c r="E349" s="4">
-        <v>0.13800000000000001</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F349" s="4">
         <v>1</v>
@@ -30596,7 +27620,7 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="J349" s="4">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.45">
@@ -30610,31 +27634,32 @@
         <v>221</v>
       </c>
       <c r="D350" s="3">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="E350" s="3">
-        <v>0.10100000000000001</v>
+        <v>1.32E-2</v>
       </c>
       <c r="F350" s="3">
         <v>1</v>
       </c>
       <c r="G350" s="3">
-        <v>2024</v>
+        <v>2376</v>
       </c>
       <c r="H350" s="3">
-        <v>48.400000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="I350" s="3">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="J350" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C26B5F6-D3AA-4A28-9A67-A10E03075EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F40935-CDE6-4736-B5DD-8F72D44A02EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FDB8E380-9015-4AFF-A6A8-CF252BE123A1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2D5E9DDB-5165-4976-9400-D5A2F53A455B}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74ED26EF-55E1-ABC9-BF99-2A37B7B6456D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1B86AC-B1AD-E52D-6587-2C537D4B9BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF366F5E-224C-22D0-D6EF-89C04EDC1BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCCEB1B-E49E-BE59-FCAD-E713287E79E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B9620-D1FB-458A-A116-3F36D3DE92CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6024EF6F-0B39-42E4-B070-C094B02C0085}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C9FD1-0D43-4334-9CDB-935FEE3F02A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95786E8-0BFE-4B21-98A0-892A479A0E78}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F40935-CDE6-4736-B5DD-8F72D44A02EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C43FDA-4FCD-4074-9BED-19E1D05FCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2D5E9DDB-5165-4976-9400-D5A2F53A455B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8B22D63-32FF-4404-B7B0-49176CEA2DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1B86AC-B1AD-E52D-6587-2C537D4B9BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E32A6F-B64E-6F0D-0DAE-7F6229972AF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCCEB1B-E49E-BE59-FCAD-E713287E79E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E889C9-AB11-B206-F9EE-1640C92E003F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6024EF6F-0B39-42E4-B070-C094B02C0085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CB544-87C8-447A-AB8C-6E7D978112F6}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95786E8-0BFE-4B21-98A0-892A479A0E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B682815-EA21-4BAA-A876-A47C0A19C84D}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C43FDA-4FCD-4074-9BED-19E1D05FCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BC6ED0-A75C-438E-9D15-0C6868D4CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8B22D63-32FF-4404-B7B0-49176CEA2DB5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8324B2C-0345-4B53-81B5-345D2DAEB348}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E32A6F-B64E-6F0D-0DAE-7F6229972AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E6C93C-6E3B-BB27-382C-3751E2CC39C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E889C9-AB11-B206-F9EE-1640C92E003F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C1BCD3-D746-433B-D79C-4A59C5D12543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CB544-87C8-447A-AB8C-6E7D978112F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC4C85-28D7-48C6-82C1-43D4056F511D}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B682815-EA21-4BAA-A876-A47C0A19C84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969533E-4358-414F-AC41-CFA31D20010F}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BC6ED0-A75C-438E-9D15-0C6868D4CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F642E2A4-6A32-4484-89BB-AA14C692BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B8324B2C-0345-4B53-81B5-345D2DAEB348}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1A2FFF27-B324-46C2-9084-53565EA978D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -702,7 +702,7 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_win-ITA</t>
+    <t>elc_won-ITA</t>
   </si>
   <si>
     <t>ep_wind_onshore_</t>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E6C93C-6E3B-BB27-382C-3751E2CC39C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B8943-09F7-C93E-F734-924070888BB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C1BCD3-D746-433B-D79C-4A59C5D12543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9102B2-FCA2-D6B4-FFF7-38019C4A8337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC4C85-28D7-48C6-82C1-43D4056F511D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99280ABC-1A83-44F2-A20D-DB2766382699}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969533E-4358-414F-AC41-CFA31D20010F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46EEF02-8095-4E9E-BC20-1663892C7CC4}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F642E2A4-6A32-4484-89BB-AA14C692BC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396C28E3-808B-40D0-A3AB-D1C04FE7AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1A2FFF27-B324-46C2-9084-53565EA978D3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FE481CD1-3471-4B42-A83F-3D7553FFF551}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B8943-09F7-C93E-F734-924070888BB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785D166C-776B-D353-4293-A207214BFBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9102B2-FCA2-D6B4-FFF7-38019C4A8337}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C209AE6-4BE4-B3B0-2167-431A661DACCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99280ABC-1A83-44F2-A20D-DB2766382699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED24708-E0F9-402C-A1F9-CC1C084D92E4}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46EEF02-8095-4E9E-BC20-1663892C7CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DCAE16-4CAE-4104-88D8-EA207C4EC73C}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A57D1A9-E9A1-42B6-82E7-0A2B8BD83AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F810476B-D66B-4B38-867A-334DD70DC03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{28BB948B-39CB-4273-A433-96D2ACA296AD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B7882966-5EE4-4D5A-BC86-B68FDAD547A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226E4675-3846-4B89-4E51-D717A4D5F2D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6BF045-B92B-AE62-29C3-EA6E58732FE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14AF619-98CA-A5A9-AC5E-A9813F7E241C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8231EA37-F58B-2E2F-752E-ECD07B430B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F3F25F-B1B3-4910-9FB6-1F5AC8DF0676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BC6A4D-11C2-4C7D-AEE1-E653B32BD1A2}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABD5F5C-87B2-44A8-B185-E3E63954F65A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2493EE-1193-4166-A47C-F512C4926C85}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F810476B-D66B-4B38-867A-334DD70DC03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB7D6EF-B159-4E94-BDB2-EB240E087880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B7882966-5EE4-4D5A-BC86-B68FDAD547A7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5AD7ABB-131B-4719-AAE9-1DE4EC11D904}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6BF045-B92B-AE62-29C3-EA6E58732FE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053EE071-C640-4E4C-9A5D-8763285CD28F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8231EA37-F58B-2E2F-752E-ECD07B430B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55523CA7-CA31-CD8D-030F-BF992751FD5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BC6A4D-11C2-4C7D-AEE1-E653B32BD1A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D43127-3FAD-4449-80B6-B9AAEC73D67F}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2493EE-1193-4166-A47C-F512C4926C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512B92C0-A5B0-49C2-BA74-1B5DB8DF0430}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB7D6EF-B159-4E94-BDB2-EB240E087880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5238CE-50E9-49FC-8C18-261220F7422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5AD7ABB-131B-4719-AAE9-1DE4EC11D904}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0301D6FE-0C38-4BA6-9A96-5E1AF2103E07}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053EE071-C640-4E4C-9A5D-8763285CD28F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5C6F58-6908-FC7B-8135-4A5A9231A897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55523CA7-CA31-CD8D-030F-BF992751FD5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42BF6B5-0EBB-D7DC-DACE-214D91BE94DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D43127-3FAD-4449-80B6-B9AAEC73D67F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C69D17-4ED7-4FF1-8EC7-C8491407D8E8}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512B92C0-A5B0-49C2-BA74-1B5DB8DF0430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F483A9-2AB7-4D07-9E19-98B9E1B6B2B8}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5238CE-50E9-49FC-8C18-261220F7422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8ADFA2-92FE-4046-9A1A-24A48C4B1510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0301D6FE-0C38-4BA6-9A96-5E1AF2103E07}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A8FC8FE1-19B4-4D6A-B7BD-76791794E2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5C6F58-6908-FC7B-8135-4A5A9231A897}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40FFC9-9DED-692C-66B6-CE2DA65E93B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42BF6B5-0EBB-D7DC-DACE-214D91BE94DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58EBF84-988D-B8EA-FD72-7F38E8122348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C69D17-4ED7-4FF1-8EC7-C8491407D8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5BDB89-1A26-40D8-8B9A-C6FA2CDE30C8}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F483A9-2AB7-4D07-9E19-98B9E1B6B2B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5CD7A7-EC7A-486E-943E-B8D72C8E5DD0}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8ADFA2-92FE-4046-9A1A-24A48C4B1510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{385548A2-E88D-4B99-B7B6-24F0EB5078D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A8FC8FE1-19B4-4D6A-B7BD-76791794E2E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{946988D0-4A98-4856-B894-EBBCD9362F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A40FFC9-9DED-692C-66B6-CE2DA65E93B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A232923-33FC-9FE5-72D0-B8F3C1460A13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58EBF84-988D-B8EA-FD72-7F38E8122348}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5929620F-A7D6-6788-186E-462E662F5292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5BDB89-1A26-40D8-8B9A-C6FA2CDE30C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3289771D-C4B9-4057-97FE-8D3246859584}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5CD7A7-EC7A-486E-943E-B8D72C8E5DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5BF416-702C-431A-A0D4-00A9DEF25360}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{385548A2-E88D-4B99-B7B6-24F0EB5078D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32606922-BF60-456C-8345-AD5B7524BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{946988D0-4A98-4856-B894-EBBCD9362F4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F86713FD-DBBC-4221-98D5-7454AB96E7D8}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A232923-33FC-9FE5-72D0-B8F3C1460A13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED4E571-31FE-4B4E-B3CA-93EC610CD1F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5929620F-A7D6-6788-186E-462E662F5292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6236C383-57DA-8202-1C79-97E4BA34B8A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3289771D-C4B9-4057-97FE-8D3246859584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C3B69-8BD9-416B-BC03-51849B9673E1}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5BF416-702C-431A-A0D4-00A9DEF25360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AA6C9C-AB14-4FCB-A0BC-3EE29468450C}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32606922-BF60-456C-8345-AD5B7524BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0DC0000-F773-4C4F-8BC3-15F93B24FA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F86713FD-DBBC-4221-98D5-7454AB96E7D8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB7DEC9A-4957-4501-A6D7-A04271ED0461}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED4E571-31FE-4B4E-B3CA-93EC610CD1F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4562404-0D58-3376-071B-EDCE26B12B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6236C383-57DA-8202-1C79-97E4BA34B8A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83217DBF-7D5C-2575-65A5-4545B23F2A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C3B69-8BD9-416B-BC03-51849B9673E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB4918-88BE-49EE-9F4D-22B01BE90766}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AA6C9C-AB14-4FCB-A0BC-3EE29468450C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0276ECD7-BA82-4A2E-A7C7-7015E21B1F15}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0DC0000-F773-4C4F-8BC3-15F93B24FA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E81B24D-C8D9-4227-8457-24556C36C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EB7DEC9A-4957-4501-A6D7-A04271ED0461}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1D3662BE-B5ED-4BB7-9732-27172BEA836B}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4562404-0D58-3376-071B-EDCE26B12B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1769D2B5-2ADB-046C-8AA7-DABCCE3197DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83217DBF-7D5C-2575-65A5-4545B23F2A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937D0954-0762-FF2C-DA61-B70312BEBE5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB4918-88BE-49EE-9F4D-22B01BE90766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09DD5DB-EC00-466A-922A-397702EFAF02}">
   <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -12167,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0276ECD7-BA82-4A2E-A7C7-7015E21B1F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8630B916-AD7B-4DE5-AEDC-A8FF869C4A29}">
   <dimension ref="A1:T350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3842EBA2-F294-473A-93D3-D267C8691464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58661711-3D0D-426E-A55C-864B72DBD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C73125F5-544C-4CC5-B06B-E742D5E3469D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{12D0E930-8117-4060-B0F7-7553F3FA5497}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3107,7 +3107,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236B5AF1-5E89-824B-34F5-E7BA151F975B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE553B1-0DB5-2BA5-BC7F-257CA2E58A53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7323E59D-B1C5-ACD0-EDD9-32D04ACD0E43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894538C8-7946-42C0-B064-3268911A23F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D20F97-BF6E-4F8B-9141-B9DCFE25C3DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D8363-631B-45C1-8F8A-523B6FEAE9CE}">
   <dimension ref="A1:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21259,7 +21259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9629B0B-D482-40C7-B054-102A38DC1DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99175953-1540-4758-84AF-A446AF6976A7}">
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A91E6D3-19C0-4000-A62F-EA5EA93033BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37730B71-56C2-472E-B8D5-D1DE29D951D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{40D92114-C33E-4DB8-9736-7AAAF2432EA5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AD31192D-966B-485C-BC93-FFC7BCB27780}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7A3624-3481-4BE0-9E7A-03CB84494822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F0C9C-9DB1-46AB-9E9E-D186C9822F2D}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB8F603-FEB4-4D5C-B041-24C5CF0EDE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D681D4-0EEE-414C-90FE-C7748FEC4F9E}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37730B71-56C2-472E-B8D5-D1DE29D951D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A8B738-5FAD-4F2C-BAFE-2B621E29C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AD31192D-966B-485C-BC93-FFC7BCB27780}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E59BA040-7203-4B7B-A648-CC465EF78387}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F0C9C-9DB1-46AB-9E9E-D186C9822F2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E3A93-52B3-482F-9B58-9C3C609AF654}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D681D4-0EEE-414C-90FE-C7748FEC4F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D6926-90B9-412E-9995-4498D4D63357}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A8B738-5FAD-4F2C-BAFE-2B621E29C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074B8E9A-643A-4A7A-ADA5-BB15F241862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E59BA040-7203-4B7B-A648-CC465EF78387}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{249E1B5B-6FD3-47D3-9F45-6E335AD6F151}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E3A93-52B3-482F-9B58-9C3C609AF654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC84CB1F-7733-4641-97FA-4DDEC56FDC2F}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D6926-90B9-412E-9995-4498D4D63357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49131A89-46B0-4AC5-AEF4-F1FE15DFEE95}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787576</v>
+        <v>0.21427782268787582</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074B8E9A-643A-4A7A-ADA5-BB15F241862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED42A5B-4E95-4733-BBB3-704B2C5BB00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{249E1B5B-6FD3-47D3-9F45-6E335AD6F151}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{282EE53D-DBC1-4EBD-91FC-0C852087B021}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC84CB1F-7733-4641-97FA-4DDEC56FDC2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E109016-5559-4647-9149-C49FC5342AA1}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49131A89-46B0-4AC5-AEF4-F1FE15DFEE95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAE33D3-6D02-49D6-9B87-7D4D2AFD6054}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED42A5B-4E95-4733-BBB3-704B2C5BB00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6367A9B-90E2-479B-94D9-2EBE576315C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{282EE53D-DBC1-4EBD-91FC-0C852087B021}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2A9EB4DE-8614-4F26-AF0E-B9C87A69C3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E109016-5559-4647-9149-C49FC5342AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76E431E-8032-4C99-B517-054AE09C93A5}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAE33D3-6D02-49D6-9B87-7D4D2AFD6054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0CEB5D-FF8E-4A0F-ACC0-32834039E031}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787582</v>
+        <v>0.21427782268787576</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6367A9B-90E2-479B-94D9-2EBE576315C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{876D7B37-A761-4E9B-BB46-33453199B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2A9EB4DE-8614-4F26-AF0E-B9C87A69C3B9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ACF2B863-3E03-48A4-A182-314493CB1382}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76E431E-8032-4C99-B517-054AE09C93A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D7086-3766-424F-87BF-79B2A4F3165D}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0CEB5D-FF8E-4A0F-ACC0-32834039E031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6905A7-A703-4FB3-8452-89AFC0E60382}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876D7B37-A761-4E9B-BB46-33453199B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAF0D1A-5181-4AC7-8256-143CFFE51F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ACF2B863-3E03-48A4-A182-314493CB1382}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EC4286E1-055F-48E7-B8F7-3D805A14470A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7D7086-3766-424F-87BF-79B2A4F3165D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404E904-2C66-434A-946F-222B6B22AEFA}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6905A7-A703-4FB3-8452-89AFC0E60382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D89F29-2769-4E7C-8604-B9602D3199D5}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAF0D1A-5181-4AC7-8256-143CFFE51F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360FC68F-40E0-4C65-956B-08DCE396EB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EC4286E1-055F-48E7-B8F7-3D805A14470A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DA2B3073-4413-4969-9FA4-FB4512ADD68F}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404E904-2C66-434A-946F-222B6B22AEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C21CAC5-5A96-4937-B699-ADC33F6D0C22}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D89F29-2769-4E7C-8604-B9602D3199D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8EF941-BDCA-48A5-B3DE-751E7E6AC1A6}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360FC68F-40E0-4C65-956B-08DCE396EB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76017D3C-F82A-4FD4-B515-DCAD8684FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DA2B3073-4413-4969-9FA4-FB4512ADD68F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1872B83-5383-4FB6-98E5-940E6B983B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C21CAC5-5A96-4937-B699-ADC33F6D0C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628B92D-CA64-41B6-A864-92FF83AEF63F}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8EF941-BDCA-48A5-B3DE-751E7E6AC1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527486EE-077A-4116-9DE1-7BE8C26748C0}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76017D3C-F82A-4FD4-B515-DCAD8684FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{749C7D3F-85A2-465A-B47D-F98E2039BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1872B83-5383-4FB6-98E5-940E6B983B8E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7DA93BAE-BEA1-4965-AF0B-23FA8BDFD2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628B92D-CA64-41B6-A864-92FF83AEF63F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621FEA08-1BD2-42F4-93F9-E64F3427C1DD}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527486EE-077A-4116-9DE1-7BE8C26748C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6929F7B0-E046-490B-8480-6D6900F69E66}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787576</v>
+        <v>0.21427782268787582</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749C7D3F-85A2-465A-B47D-F98E2039BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{916953B5-BDDB-4518-8109-DFFEAB7C64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7DA93BAE-BEA1-4965-AF0B-23FA8BDFD2E4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCDABAFB-8810-40C1-A337-8FC6214D3299}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621FEA08-1BD2-42F4-93F9-E64F3427C1DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88068496-0C49-404A-AECC-565A2D739C01}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6929F7B0-E046-490B-8480-6D6900F69E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2508EED6-5B11-46F0-88E2-F4E3BF57F8CF}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787582</v>
+        <v>0.21427782268787576</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{916953B5-BDDB-4518-8109-DFFEAB7C64A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E61FA85-67FC-4A4B-8A6F-20733A40E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DCDABAFB-8810-40C1-A337-8FC6214D3299}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6C8A9461-51D3-4B1D-972E-1523020012C6}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88068496-0C49-404A-AECC-565A2D739C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E08EA-C5CB-4F6B-A1D8-09BDF0C60C1D}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2508EED6-5B11-46F0-88E2-F4E3BF57F8CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04482F7E-F08A-49F8-AFB9-F53BE744E982}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787576</v>
+        <v>0.21427782268787585</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E61FA85-67FC-4A4B-8A6F-20733A40E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24F0833-A932-47AF-8E76-69A9365535BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6C8A9461-51D3-4B1D-972E-1523020012C6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5BB4A18F-F57D-445B-A736-1F06E57D287E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E08EA-C5CB-4F6B-A1D8-09BDF0C60C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D26E7A8-CF69-402C-9714-4A546219CF9A}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04482F7E-F08A-49F8-AFB9-F53BE744E982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E867C-AE8C-4828-9070-138A524B2A1D}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787585</v>
+        <v>0.21427782268787582</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24F0833-A932-47AF-8E76-69A9365535BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C43E7F-7D85-4D7C-A2EC-5250DD87EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5BB4A18F-F57D-445B-A736-1F06E57D287E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C1557D59-15C3-4237-BD1A-5E298DB4B6EC}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D26E7A8-CF69-402C-9714-4A546219CF9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5FEDB-0D33-4F96-91B0-A69EB9AFA08E}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E867C-AE8C-4828-9070-138A524B2A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798BF190-8C4E-4F5F-A18E-53746E40E88A}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C43E7F-7D85-4D7C-A2EC-5250DD87EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA4F17A-926A-4214-A541-B4536D5EAED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C1557D59-15C3-4237-BD1A-5E298DB4B6EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20BA0F87-7D5E-46F5-A735-F92C85FC269E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5FEDB-0D33-4F96-91B0-A69EB9AFA08E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F7D92-B822-4F32-A272-65BE466B5571}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798BF190-8C4E-4F5F-A18E-53746E40E88A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18782D81-17A5-4DEF-A317-8297BE9B3962}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787582</v>
+        <v>0.21427782268787576</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA4F17A-926A-4214-A541-B4536D5EAED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939EF782-E5DA-4347-A36C-5103B58E5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{20BA0F87-7D5E-46F5-A735-F92C85FC269E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B3732451-6483-4103-8860-B5376B49D6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0F7D92-B822-4F32-A272-65BE466B5571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED7CE2E-96D9-4AB7-9E8A-0C743D121DE0}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18782D81-17A5-4DEF-A317-8297BE9B3962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6E4154-9834-4722-82B0-8F38EE0D6B08}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939EF782-E5DA-4347-A36C-5103B58E5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29161E54-CAEE-4ADF-9ADC-E9FC03D1447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B3732451-6483-4103-8860-B5376B49D6FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C77C84E9-A212-4B82-9752-CC7B3B7D9096}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED7CE2E-96D9-4AB7-9E8A-0C743D121DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA47E9D-E021-4645-AC03-62BDC5207521}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6E4154-9834-4722-82B0-8F38EE0D6B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212BF75-E3E5-4D68-A199-441B9648F226}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787576</v>
+        <v>0.21427782268787582</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29161E54-CAEE-4ADF-9ADC-E9FC03D1447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50381F43-CD94-49BD-9BEF-08FE6EF2402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C77C84E9-A212-4B82-9752-CC7B3B7D9096}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{79E299BD-A32F-493F-ADBE-034E39F9BBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA47E9D-E021-4645-AC03-62BDC5207521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E61899-8808-45B7-9385-E6596F1F898F}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212BF75-E3E5-4D68-A199-441B9648F226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4143BD5F-5027-4E86-9D5B-9006DA889E0E}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787582</v>
+        <v>0.21427782268787576</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50381F43-CD94-49BD-9BEF-08FE6EF2402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F211F0-F0AA-4C39-B61C-FEDD33A4D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{79E299BD-A32F-493F-ADBE-034E39F9BBC0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{28E37B25-C7CF-4E39-8E05-B17F8010DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E61899-8808-45B7-9385-E6596F1F898F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EFDB00-861C-4854-ABFB-F7B95E6CC5BE}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4143BD5F-5027-4E86-9D5B-9006DA889E0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514390B5-5F3C-4A88-BA1D-3591A26A027A}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34F211F0-F0AA-4C39-B61C-FEDD33A4D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36144640-E6F0-424C-A773-99DC6D680D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{28E37B25-C7CF-4E39-8E05-B17F8010DF9A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7413C4C6-4C27-4532-AE96-9095F52AB778}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EFDB00-861C-4854-ABFB-F7B95E6CC5BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB226BD-ECE6-43B8-90EF-F0D96F3853C4}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514390B5-5F3C-4A88-BA1D-3591A26A027A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABBAC58-C9D0-4758-B078-F14D66A44BD3}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36144640-E6F0-424C-A773-99DC6D680D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFE4F0E-51A0-4C7E-892A-1CB741F9DD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7413C4C6-4C27-4532-AE96-9095F52AB778}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5A6B10F5-8870-4740-BEE2-C62285E30E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB226BD-ECE6-43B8-90EF-F0D96F3853C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B502ADE0-19AA-4DBD-846A-181CAF9FA10B}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABBAC58-C9D0-4758-B078-F14D66A44BD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F4015F-2278-497E-855D-F8DD584FBDB9}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2724E309-6303-48DA-BC9C-4A14391FAB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBCDB15-3F27-4A1F-B1F2-F912DD59576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4DD1F5E1-5D76-4554-BEC5-31CE27AF4526}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E0391F5B-BBC6-4E21-9C1C-B8463161E8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B313EE3-C493-4A65-8128-780F9C092FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D8B6CA-8991-45ED-A623-2A1D073B5922}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50813114-9791-4974-9383-6134C63217AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB7DE3C-35E2-4488-A06F-C7B0EBE3D025}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787582</v>
+        <v>0.21427782268787576</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E1EDD23-5498-47BF-83FB-7E2F6E4E0CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353B3574-4A79-4E34-8A45-137B55396D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{772EEA3B-383E-400E-8646-E993EE9BCDC8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{74F83F39-B5AC-4446-A50D-6D1BA1A25F43}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC04C8D-F37B-4224-A9CD-A541099B5850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD9F79B-4501-44F7-9B96-7B8DD5C556A6}">
   <dimension ref="B9:T352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -21022,7 +21022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FF5E99-ABB9-4DA6-A0F5-D6B6C79E83C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A9649C-800B-466E-99A1-B275F2873B28}">
   <dimension ref="B9:T520"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42530,7 +42530,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21427782268787576</v>
+        <v>0.21427782268787582</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEB9795-F75C-40BD-9266-FD5728B7B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896AA0BA-A45A-478F-820F-0BBA4C81F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{71C4D384-63C2-4A43-9F8A-F2DC529E4E3F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{61A919F8-FB48-487B-B531-596AE3466C84}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0211483-6AA5-44F5-846B-06A346F1CEC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921417-6531-4036-9D6F-0CC98289D26F}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF3A69-8A7B-4ABF-B438-EA99AC575C66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8935C5-CE9E-4007-BA03-F0F61C963D07}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41070,7 +41070,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.2151765110057044</v>
+        <v>0.21517651100570445</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">
@@ -41816,7 +41816,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L486">
-        <v>0.16655441184208439</v>
+        <v>0.16655441184208444</v>
       </c>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896AA0BA-A45A-478F-820F-0BBA4C81F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE3808D-C3D7-48B8-99FD-5A5BC08A760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{61A919F8-FB48-487B-B531-596AE3466C84}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AAFFD8AE-0572-4D16-ACAC-555420D6C533}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75921417-6531-4036-9D6F-0CC98289D26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC943C5F-1BF6-46E0-B680-CAF06CE08FD5}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8935C5-CE9E-4007-BA03-F0F61C963D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE046C6-CC65-451E-B6D5-26FF348A2E58}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE3808D-C3D7-48B8-99FD-5A5BC08A760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D10CEF-D6ED-4786-B0A9-1D1B30581BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AAFFD8AE-0572-4D16-ACAC-555420D6C533}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7CE7E87-A3D7-4297-8CD2-E7E1B4FAA20E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC943C5F-1BF6-46E0-B680-CAF06CE08FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2048E72-7778-4118-9155-986B161ECBBB}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE046C6-CC65-451E-B6D5-26FF348A2E58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9855F6-CB3F-48AB-8AC6-0D6A04DD9ABE}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D10CEF-D6ED-4786-B0A9-1D1B30581BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A919924-9337-46CB-B0AB-C36DFD4E5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7CE7E87-A3D7-4297-8CD2-E7E1B4FAA20E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{12F474CC-A831-4C05-A23D-5C24EFA45730}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2048E72-7778-4118-9155-986B161ECBBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C58E0-2DED-4D74-8912-E9F1080CFDB4}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9855F6-CB3F-48AB-8AC6-0D6A04DD9ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127A056-2831-447E-95F6-99C8373B0938}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41816,7 +41816,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L486">
-        <v>0.16655441184208444</v>
+        <v>0.16655441184208447</v>
       </c>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A919924-9337-46CB-B0AB-C36DFD4E5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5741F313-E9E8-4CF9-8F13-45F1848242F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{12F474CC-A831-4C05-A23D-5C24EFA45730}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4552E3E9-1CD3-4A3D-B812-E9D2162F4224}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58C58E0-2DED-4D74-8912-E9F1080CFDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCD966-DE78-40A6-84C8-2E569399EE0A}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127A056-2831-447E-95F6-99C8373B0938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DDEDE4-F4D5-4550-855D-E29CA7F8EBFE}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41070,7 +41070,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.21517651100570445</v>
+        <v>0.2151765110057044</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">
@@ -41816,7 +41816,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L486">
-        <v>0.16655441184208447</v>
+        <v>0.16655441184208442</v>
       </c>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
+++ b/VerveStacks_ITA/vt_vervestacks_ITA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5741F313-E9E8-4CF9-8F13-45F1848242F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D06C6D-A139-40EB-9D91-1AE34552D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4552E3E9-1CD3-4A3D-B812-E9D2162F4224}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{18C5D629-221A-4EB6-9E09-41C72B8C3C53}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCD966-DE78-40A6-84C8-2E569399EE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC4CA7-52D8-4505-A893-ACB618913350}">
   <dimension ref="B9:T336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -19373,7 +19373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DDEDE4-F4D5-4550-855D-E29CA7F8EBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E379D-4D16-4CC0-A6AD-7193717933A7}">
   <dimension ref="B9:T516"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41070,7 +41070,7 @@
         <v>33</v>
       </c>
       <c r="L464">
-        <v>0.2151765110057044</v>
+        <v>0.21517651100570445</v>
       </c>
     </row>
     <row r="465" spans="2:12" x14ac:dyDescent="0.45">
@@ -41816,7 +41816,7 @@
         <v>0.33123000000000002</v>
       </c>
       <c r="L486">
-        <v>0.16655441184208442</v>
+        <v>0.16655441184208444</v>
       </c>
     </row>
     <row r="487" spans="2:12" x14ac:dyDescent="0.45">
